--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -67,13 +67,25 @@
   </si>
   <si>
     <t>Gestor evento citación</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>DISEÑADOR WEB</t>
+  </si>
+  <si>
+    <t>ADL</t>
+  </si>
+  <si>
+    <t>Mensajero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,15 +101,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,12 +111,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -299,6 +316,109 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -307,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,31 +455,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,110 +798,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="87.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="87.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="H1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="33"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="33"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1"/>
@@ -772,25 +930,31 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="33"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -799,56 +963,97 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -801,7 +801,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1009,7 @@
       <c r="F10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="33"/>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -7,16 +7,39 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Historial de cambios" sheetId="2" r:id="rId1"/>
+    <sheet name="Mapeo" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Cocaro</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Date Format is, dd month, yyyy</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -79,13 +102,56 @@
   </si>
   <si>
     <t>Mensajero</t>
+  </si>
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t>Application Name:</t>
+  </si>
+  <si>
+    <t>Amendment History - Document Status (e.g. Draft, Final, Release #):</t>
+  </si>
+  <si>
+    <t>Document Version #</t>
+  </si>
+  <si>
+    <t>Approval Date</t>
+  </si>
+  <si>
+    <t>Modified By</t>
+  </si>
+  <si>
+    <t>Section, Page(s)and Text Revised</t>
+  </si>
+  <si>
+    <t>1.0 Initial Version</t>
+  </si>
+  <si>
+    <t>Version Inicial</t>
+  </si>
+  <si>
+    <t>Pablo Nicoliello</t>
+  </si>
+  <si>
+    <t>BLPM</t>
+  </si>
+  <si>
+    <t>EDUAR 2.0</t>
+  </si>
+  <si>
+    <t>Matriz de mapeo de roles con usuarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/mmm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +167,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +232,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -423,11 +534,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="48"/>
+      </left>
+      <right style="thick">
+        <color indexed="18"/>
+      </right>
+      <top style="thick">
+        <color indexed="48"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,6 +651,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,11 +989,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="42"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="45">
+        <v>40678</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,28 +1361,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de cambios" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>Matriz de mapeo de roles con usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Tipo de Usuario
+Roles</t>
   </si>
 </sst>
 </file>
@@ -389,17 +393,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -576,6 +569,19 @@
         <color indexed="64"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -608,56 +614,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -688,6 +693,9 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1005,92 +1013,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
+      <c r="A2" s="35"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>40678</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1102,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,119 +1120,121 @@
     <col min="2" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="87.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="28"/>
+      <c r="G3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="25"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="25"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1"/>
@@ -1232,29 +1242,29 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="25"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="25"/>
+      <c r="G7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -1265,58 +1275,58 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="25"/>
+      <c r="G8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="25"/>
+      <c r="F9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="25"/>
+      <c r="B10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -1326,15 +1336,15 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -1342,20 +1352,20 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="19"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="20"/>
+      <c r="J13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>ADL</t>
-  </si>
-  <si>
-    <t>Mensajero</t>
   </si>
   <si>
     <t>Project Name:</t>
@@ -145,6 +142,15 @@
   <si>
     <t xml:space="preserve">                          Tipo de Usuario
 Roles</t>
+  </si>
+  <si>
+    <t>Mensajero alumno</t>
+  </si>
+  <si>
+    <t>Mensajero institución</t>
+  </si>
+  <si>
+    <t>Mensajero tutor</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1020,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1022,18 +1028,18 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1045,35 +1051,35 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="C8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="D8" s="43" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="44">
         <v>40678</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1128,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>9</v>
@@ -1304,39 +1310,33 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="32"/>
       <c r="I10" s="22"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -1344,28 +1344,61 @@
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="19"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Mensajero tutor</t>
+  </si>
+  <si>
+    <t>Notificador</t>
   </si>
 </sst>
 </file>
@@ -249,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -450,15 +453,6 @@
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -643,10 +637,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -659,16 +652,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -700,8 +693,11 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,92 +1015,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="A2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="43">
         <v>40678</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1117,7 +1113,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,34 +1123,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1174,8 +1170,8 @@
         <v>15</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="20"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1194,9 +1190,9 @@
       <c r="G3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="27"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -1214,9 +1210,9 @@
         <v>15</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="24"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -1232,9 +1228,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="24"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -1248,9 +1244,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -1268,9 +1264,9 @@
       <c r="G7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="24"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -1284,9 +1280,9 @@
       <c r="G8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="24"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -1304,9 +1300,9 @@
       <c r="G9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -1320,9 +1316,9 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="24"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -1342,9 +1338,9 @@
       <c r="G11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="24"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -1357,9 +1353,9 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="24"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
@@ -1375,16 +1371,15 @@
       <c r="G13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="5"/>
       <c r="D14" s="16" t="s">
         <v>15</v>
       </c>
@@ -1393,12 +1388,25 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="21"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="19"/>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19440" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de cambios" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>Notificador</t>
+  </si>
+  <si>
+    <t>Docente</t>
+  </si>
+  <si>
+    <t>Preceptor</t>
+  </si>
+  <si>
+    <t>Alumno</t>
+  </si>
+  <si>
+    <t>Tutor</t>
+  </si>
+  <si>
+    <t>Psicopedagogo</t>
+  </si>
+  <si>
+    <t>Director</t>
   </si>
 </sst>
 </file>
@@ -252,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -445,20 +463,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="double">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -466,65 +508,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,11 +566,105 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,16 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -630,16 +698,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -652,16 +715,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -693,12 +755,40 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,92 +1105,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
+      <c r="A2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="36">
         <v>40678</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1110,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,120 +1213,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="17"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="26"/>
+      <c r="G3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="23"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="23"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1"/>
@@ -1244,170 +1334,268 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="23"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="23"/>
+      <c r="G7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="23"/>
+      <c r="G8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="23"/>
+      <c r="F9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="23"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="23"/>
+      <c r="B11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="23"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="D14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="18"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="18"/>
-    </row>
+      <c r="B15" s="53"/>
+      <c r="C15" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19440" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="19440" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de cambios" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Director</t>
+  </si>
+  <si>
+    <t>Gestor de Monitoreo</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -392,19 +395,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="double">
         <color indexed="64"/>
       </right>
@@ -658,13 +648,104 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,49 +762,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -755,40 +836,49 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,9 +1346,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="24"/>
       <c r="I2" s="14"/>
@@ -1316,7 +1404,9 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="25"/>
       <c r="I5" s="15"/>
@@ -1350,7 +1440,9 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1358,8 +1450,8 @@
       <c r="I7" s="15"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5"/>
@@ -1411,7 +1503,7 @@
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="62" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1432,7 +1524,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
@@ -1469,7 +1561,7 @@
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="18"/>
       <c r="D14" s="10" t="s">
         <v>15</v>
@@ -1479,28 +1571,28 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="58"/>
+      <c r="H14" s="55"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="59"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="46"/>
       <c r="I15" s="47"/>
       <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="58" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1516,7 +1608,7 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="58" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="19"/>
@@ -1532,7 +1624,7 @@
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="19"/>
@@ -1548,7 +1640,7 @@
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="58" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="19"/>
@@ -1564,7 +1656,7 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="58" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="19"/>
@@ -1583,19 +1675,46 @@
       <c r="A21" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="52"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="65"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="64"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="68"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="67"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Gestor de Monitoreo</t>
+  </si>
+  <si>
+    <t>Secretaria</t>
   </si>
 </sst>
 </file>
@@ -241,7 +244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +275,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -316,55 +325,10 @@
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -651,16 +615,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -672,69 +677,6 @@
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="double">
         <color indexed="64"/>
       </top>
@@ -745,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,58 +695,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -836,49 +772,39 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,92 +1121,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
+      <c r="A2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="34">
         <v>40678</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1290,430 +1216,469 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="56"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="45"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="52"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="65"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="64"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="68"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="67"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -98,9 +98,6 @@
     <t>DISEÑADOR WEB</t>
   </si>
   <si>
-    <t>ADL</t>
-  </si>
-  <si>
     <t>Project Name:</t>
   </si>
   <si>
@@ -140,44 +137,50 @@
     <t>Matriz de mapeo de roles con usuarios</t>
   </si>
   <si>
-    <t xml:space="preserve">                          Tipo de Usuario
+    <t>Mensajero alumno</t>
+  </si>
+  <si>
+    <t>Mensajero institución</t>
+  </si>
+  <si>
+    <t>Mensajero tutor</t>
+  </si>
+  <si>
+    <t>Notificador</t>
+  </si>
+  <si>
+    <t>Docente</t>
+  </si>
+  <si>
+    <t>Preceptor</t>
+  </si>
+  <si>
+    <t>Alumno</t>
+  </si>
+  <si>
+    <t>Tutor</t>
+  </si>
+  <si>
+    <t>Psicopedagogo</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Gestor de Monitoreo</t>
+  </si>
+  <si>
+    <t>Secretaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Tipo de Usuario
 Roles</t>
   </si>
   <si>
-    <t>Mensajero alumno</t>
-  </si>
-  <si>
-    <t>Mensajero institución</t>
-  </si>
-  <si>
-    <t>Mensajero tutor</t>
-  </si>
-  <si>
-    <t>Notificador</t>
-  </si>
-  <si>
-    <t>Docente</t>
-  </si>
-  <si>
-    <t>Preceptor</t>
-  </si>
-  <si>
-    <t>Alumno</t>
-  </si>
-  <si>
-    <t>Tutor</t>
-  </si>
-  <si>
-    <t>Psicopedagogo</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>Gestor de Monitoreo</t>
-  </si>
-  <si>
-    <t>Secretaria</t>
+    <t>AUTOMÁTICO</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1125,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1130,18 +1133,18 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1153,35 +1156,35 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="C8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="33" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="34">
         <v>40678</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1218,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,9 +1232,9 @@
     <col min="11" max="11" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>9</v>
@@ -1252,7 +1255,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>17</v>
@@ -1261,7 +1264,7 @@
         <v>18</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1433,7 +1436,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
@@ -1473,7 +1476,7 @@
     </row>
     <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3"/>
       <c r="D12" s="1"/>
@@ -1527,7 +1530,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="46" t="s">
@@ -1544,7 +1547,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="16"/>
@@ -1563,7 +1566,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1580,7 +1583,7 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="7" t="s">
@@ -1597,7 +1600,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="16"/>
@@ -1614,7 +1617,7 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="16"/>
@@ -1631,7 +1634,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="16"/>
@@ -1648,7 +1651,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="16"/>
@@ -1665,7 +1668,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="16"/>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="19440" windowHeight="7875" activeTab="1"/>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="A1:K23"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="19440" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="19440" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de cambios" sheetId="2" r:id="rId1"/>
-    <sheet name="Mapeo" sheetId="1" r:id="rId2"/>
+    <sheet name="Mapeo Rol-Perfil" sheetId="1" r:id="rId2"/>
+    <sheet name="Acceso-Perfil" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="118">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -181,6 +182,219 @@
   </si>
   <si>
     <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>Cursos</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Planificacion</t>
+  </si>
+  <si>
+    <t>indiferencia</t>
+  </si>
+  <si>
+    <t>Novedad Aulica</t>
+  </si>
+  <si>
+    <t>Registro de Clase</t>
+  </si>
+  <si>
+    <t>Novedades Aulicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar novedad nueva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">responder novedad </t>
+  </si>
+  <si>
+    <t>ver novedades aulicas</t>
+  </si>
+  <si>
+    <t>Registrar Contenidos curriculares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar planificacion </t>
+  </si>
+  <si>
+    <t>Aprobar planificacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consultar planificacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicadores </t>
+  </si>
+  <si>
+    <t>ver Cobertura de planificacion (consultar por fecha, exportar a PDF)</t>
+  </si>
+  <si>
+    <t>ver ausencia de docente (consultar por fecha, exportar a PDF)</t>
+  </si>
+  <si>
+    <t>ver promedio General(consultar por fecha, exportar a PDF)</t>
+  </si>
+  <si>
+    <t>ver alumnos con mas de una falta (consultar por fecha, exportar a PDF)</t>
+  </si>
+  <si>
+    <t>ver alumnos con mas de n amonestacion (consultar por fecha, exportar a PDF)</t>
+  </si>
+  <si>
+    <t>ver alumnos con 5 materias  reprobadas(consultar por fecha, exportar a PDF)</t>
+  </si>
+  <si>
+    <t>Registrar una planificacion de una asignatura curso</t>
+  </si>
+  <si>
+    <t>Encuesta</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>Comunicación</t>
+  </si>
+  <si>
+    <t>Administracion</t>
+  </si>
+  <si>
+    <t>Contenidos a planificar</t>
+  </si>
+  <si>
+    <t>Registrar contenido curricular</t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>administrar encuesta(Crear y consultar encuestas)</t>
+  </si>
+  <si>
+    <t>crear escalas de ponderacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calificaciones </t>
+  </si>
+  <si>
+    <t>sanciones</t>
+  </si>
+  <si>
+    <t>inasistencias</t>
+  </si>
+  <si>
+    <t>cnsolidados</t>
+  </si>
+  <si>
+    <t>indicacores</t>
+  </si>
+  <si>
+    <t>historicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usuarios </t>
+  </si>
+  <si>
+    <t>configuracion de indicadores</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>cambiar contraseña</t>
+  </si>
+  <si>
+    <t>cambiar email</t>
+  </si>
+  <si>
+    <t>cambiar pregunta secreta</t>
+  </si>
+  <si>
+    <t>Foro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moderadoes </t>
+  </si>
+  <si>
+    <t>preceptor</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Boletin</t>
+  </si>
+  <si>
+    <t>consultar Sanciones/amonestaciones/notas</t>
+  </si>
+  <si>
+    <t>Link responde encuesta</t>
+  </si>
+  <si>
+    <t>link de mensaje nuevo</t>
+  </si>
+  <si>
+    <t>gnicollini</t>
+  </si>
+  <si>
+    <t>pnicollini</t>
+  </si>
+  <si>
+    <t>sblanche</t>
+  </si>
+  <si>
+    <t>jdomnguez</t>
+  </si>
+  <si>
+    <t>gswiff</t>
+  </si>
+  <si>
+    <t>gmoya</t>
+  </si>
+  <si>
+    <t>variet</t>
+  </si>
+  <si>
+    <t>fzapata</t>
+  </si>
+  <si>
+    <t>administracion de Reuniones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administracion de  excursiones </t>
+  </si>
+  <si>
+    <t>administracion  de evaluaciones</t>
+  </si>
+  <si>
+    <t>administracion de Registro de Clase</t>
+  </si>
+  <si>
+    <t>administrativo</t>
+  </si>
+  <si>
+    <t>lbelleze</t>
+  </si>
+  <si>
+    <t>Crear novedades institucionales</t>
+  </si>
+  <si>
+    <t>Consultar citaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear citaciones </t>
+  </si>
+  <si>
+    <t>Mensajes (Recibido, enviado, redactar)</t>
+  </si>
+  <si>
+    <t>Consultar Actividades de agenda</t>
+  </si>
+  <si>
+    <t>usuarios  comun</t>
   </si>
 </sst>
 </file>
@@ -285,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -686,11 +900,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -808,6 +1035,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1219,472 +1467,1693 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="5" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:14" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="E12" s="3"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="H12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="13"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="L13" s="23"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="52"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="52"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="43"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="52"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="s">
+      <c r="E16" s="51"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="52"/>
+    </row>
+    <row r="17" spans="4:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="23"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="s">
+      <c r="L17" s="23"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="17"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
+      <c r="L18" s="17"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="17"/>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="L19" s="17"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="17"/>
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="55" t="s">
+      <c r="L20" s="17"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="17"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J21" s="16"/>
       <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
+      <c r="L21" s="17"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="L22" s="17"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="17"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="18"/>
+      <c r="K23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="63"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="63"/>
+      <c r="B9" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="63"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
+      <c r="B17" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="63"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="63"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="63"/>
+      <c r="B25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="63"/>
+      <c r="B26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="63"/>
+      <c r="B27" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="63"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="64"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="66"/>
+      <c r="B32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="67"/>
+      <c r="B33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
+      <c r="B36" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="66"/>
+      <c r="B37" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="66"/>
+      <c r="B38" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="66"/>
+      <c r="B39" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="67"/>
+      <c r="B40" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="66"/>
+      <c r="B43" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="66"/>
+      <c r="B44" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="67"/>
+      <c r="B45" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="67"/>
+      <c r="B47" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="66"/>
+      <c r="B50" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="67"/>
+      <c r="B51" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="67"/>
+      <c r="B55" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="A5:A23"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B9:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -40,21 +40,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="122">
   <si>
     <t>Moderador de foro</t>
   </si>
   <si>
-    <t>Registrador novedades web</t>
-  </si>
-  <si>
     <t>Posteador de foro</t>
   </si>
   <si>
     <t>Gestor novedades aulicas</t>
-  </si>
-  <si>
-    <t>Gestor evento curso</t>
   </si>
   <si>
     <t>Gestor evento institucional</t>
@@ -181,9 +175,6 @@
     <t>AUTOMÁTICO</t>
   </si>
   <si>
-    <t>SECRETARIA</t>
-  </si>
-  <si>
     <t>Cursos</t>
   </si>
   <si>
@@ -193,15 +184,6 @@
     <t>Planificacion</t>
   </si>
   <si>
-    <t>indiferencia</t>
-  </si>
-  <si>
-    <t>Novedad Aulica</t>
-  </si>
-  <si>
-    <t>Registro de Clase</t>
-  </si>
-  <si>
     <t>Novedades Aulicas</t>
   </si>
   <si>
@@ -286,9 +268,6 @@
     <t>inasistencias</t>
   </si>
   <si>
-    <t>cnsolidados</t>
-  </si>
-  <si>
     <t>indicacores</t>
   </si>
   <si>
@@ -316,9 +295,6 @@
     <t>Foro</t>
   </si>
   <si>
-    <t xml:space="preserve">moderadoes </t>
-  </si>
-  <si>
     <t>preceptor</t>
   </si>
   <si>
@@ -394,7 +370,43 @@
     <t>Consultar Actividades de agenda</t>
   </si>
   <si>
-    <t>usuarios  comun</t>
+    <t>consolidados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moderadores </t>
+  </si>
+  <si>
+    <t>Registrador novedades web (Novedades Institucionales)</t>
+  </si>
+  <si>
+    <t>usuarios  comun (posteador y consulta)</t>
+  </si>
+  <si>
+    <t>SECRETARIA(administrativo)</t>
+  </si>
+  <si>
+    <t>Gestor evento curso (agenda excursiones)</t>
+  </si>
+  <si>
+    <t>Gestor evento curso (agenda  evaluacion)</t>
+  </si>
+  <si>
+    <t>Gestor evento curso (agenda reuniones)</t>
+  </si>
+  <si>
+    <t>Gestor evento curso (Registro clases)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuarios: </t>
+  </si>
+  <si>
+    <t>Accesos</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestor reportes consolidados </t>
   </si>
 </sst>
 </file>
@@ -405,7 +417,7 @@
     <numFmt numFmtId="164" formatCode="d/mmm/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,8 +472,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,8 +524,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -913,11 +945,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1039,6 +1119,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1047,14 +1136,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,7 +1478,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1381,18 +1486,18 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1404,35 +1509,35 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="D8" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="34">
         <v>40678</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="D1:N27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,111 +1585,102 @@
     <col min="14" max="14" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:14" ht="109.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" s="20" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="4:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>85</v>
+      </c>
       <c r="L2" s="22"/>
       <c r="M2" s="12"/>
       <c r="N2" s="11"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
+    <row r="3" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="5" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="16"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D4" s="43" t="s">
+        <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="14"/>
@@ -1592,323 +1688,342 @@
       <c r="M4" s="13"/>
       <c r="N4" s="15"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="16" t="s">
+        <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K5" s="14"/>
       <c r="L5" s="23"/>
       <c r="M5" s="13"/>
       <c r="N5" s="15"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K6" s="14"/>
       <c r="L6" s="23"/>
       <c r="M6" s="13"/>
       <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>15</v>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="23"/>
       <c r="M7" s="13"/>
       <c r="N7" s="15"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>15</v>
-      </c>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="14"/>
       <c r="L8" s="23"/>
       <c r="M8" s="13"/>
       <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="I9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="14"/>
       <c r="L9" s="23"/>
       <c r="M9" s="13"/>
       <c r="N9" s="15"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="K10" s="14"/>
       <c r="L10" s="23"/>
       <c r="M10" s="13"/>
       <c r="N10" s="15"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="7" t="s">
-        <v>15</v>
-      </c>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L11" s="23"/>
       <c r="M11" s="13"/>
       <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="3"/>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="69"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="14"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L12" s="23"/>
       <c r="M12" s="13"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="69"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="14"/>
+      <c r="I13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="L13" s="23"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="52"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="43"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="4:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="52"/>
-    </row>
-    <row r="17" spans="4:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="50"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="52"/>
     </row>
     <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="18"/>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="17"/>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="51"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="I19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="17"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="18"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="4:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="18"/>
       <c r="L21" s="17"/>
@@ -1916,38 +2031,94 @@
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="56" t="s">
-        <v>41</v>
+      <c r="D22" s="55" t="s">
+        <v>35</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="J22" s="16"/>
       <c r="K22" s="18"/>
       <c r="L22" s="17"/>
       <c r="M22" s="16"/>
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="56" t="s">
-        <v>43</v>
+      <c r="D23" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="K23" s="18"/>
       <c r="L23" s="17"/>
       <c r="M23" s="16"/>
       <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="18"/>
+    </row>
+    <row r="26" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="56" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1957,253 +2128,275 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="77" customWidth="1"/>
+    <col min="2" max="2" width="41" style="31" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="H1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
+      <c r="G3" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I3" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="D5" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="61"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="61"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="61"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="62" t="s">
-        <v>53</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="65" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -2213,29 +2406,29 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="65" t="s">
-        <v>49</v>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="62" t="s">
+        <v>46</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -2245,9 +2438,9 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="67"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -2258,19 +2451,19 @@
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="61" t="s">
-        <v>61</v>
+      <c r="A17" s="66"/>
+      <c r="B17" s="68" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -2278,17 +2471,17 @@
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -2296,17 +2489,17 @@
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -2314,17 +2507,17 @@
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -2332,17 +2525,17 @@
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -2350,17 +2543,17 @@
       <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="61"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -2368,17 +2561,17 @@
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="61"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -2386,35 +2579,37 @@
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>74</v>
+      <c r="A24" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="F24" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="16" t="s">
-        <v>58</v>
+      <c r="A25" s="66"/>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -2422,13 +2617,13 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="16" t="s">
-        <v>59</v>
+      <c r="A26" s="66"/>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -2438,19 +2633,19 @@
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
-      <c r="B27" s="16" t="s">
-        <v>60</v>
+      <c r="A27" s="66"/>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -2458,8 +2653,8 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -2470,8 +2665,8 @@
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -2482,8 +2677,8 @@
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -2495,20 +2690,20 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -2517,18 +2712,18 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="66"/>
-      <c r="B32" s="16" t="s">
-        <v>76</v>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -2537,18 +2732,18 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="67"/>
-      <c r="B33" s="16" t="s">
-        <v>77</v>
+      <c r="B33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -2556,8 +2751,8 @@
       <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -2569,141 +2764,141 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="66"/>
-      <c r="B36" s="16" t="s">
-        <v>79</v>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="66"/>
-      <c r="B37" s="16" t="s">
-        <v>80</v>
+      <c r="B37" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="66"/>
-      <c r="B38" s="16" t="s">
-        <v>81</v>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="66"/>
-      <c r="B39" s="16" t="s">
-        <v>82</v>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="67"/>
-      <c r="B40" s="16" t="s">
-        <v>83</v>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -2715,97 +2910,93 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>115</v>
+        <v>65</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="66"/>
-      <c r="B43" s="16" t="s">
-        <v>112</v>
+      <c r="B43" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E43" s="16"/>
-      <c r="F43" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>93</v>
-      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="66"/>
-      <c r="B44" s="16" t="s">
-        <v>113</v>
+      <c r="B44" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="67"/>
-      <c r="B45" s="16" t="s">
-        <v>114</v>
+      <c r="B45" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
@@ -2813,35 +3004,35 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>84</v>
+        <v>66</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="67"/>
-      <c r="B47" s="16" t="s">
-        <v>85</v>
+      <c r="B47" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -2850,8 +3041,8 @@
       <c r="J47" s="16"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
@@ -2863,93 +3054,93 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="66"/>
-      <c r="B50" s="16" t="s">
-        <v>88</v>
+      <c r="B50" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="67"/>
-      <c r="B51" s="16" t="s">
-        <v>89</v>
+      <c r="B51" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -2960,8 +3151,8 @@
       <c r="J52" s="16"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -2973,51 +3164,53 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="67"/>
-      <c r="B55" s="16" t="s">
-        <v>117</v>
+      <c r="B55" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="E55" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J55" s="16" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J55" s="16"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
@@ -3028,30 +3221,34 @@
       <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>116</v>
+      <c r="A57" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
+      <c r="I57" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
@@ -3062,11 +3259,11 @@
       <c r="J58" s="16"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>95</v>
+      <c r="A59" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -3075,15 +3272,15 @@
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
       <c r="I59" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="1"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -3094,9 +3291,9 @@
       <c r="J60" s="16"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16" t="s">
-        <v>96</v>
+      <c r="A61" s="61"/>
+      <c r="B61" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -3105,42 +3302,49 @@
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J61" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16" t="s">
-        <v>97</v>
+      <c r="A62" s="61"/>
+      <c r="B62" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="A5:A23"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A24:A29"/>
@@ -3148,11 +3352,6 @@
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="A5:A23"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="153">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -1372,6 +1372,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1387,24 +1405,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,7 +1831,7 @@
     <col min="14" max="14" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" ht="109.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:19" ht="138" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -2093,12 +2093,8 @@
       <c r="D12" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="63"/>
       <c r="H12" s="62"/>
       <c r="I12" s="5" t="s">
@@ -2107,9 +2103,7 @@
       <c r="J12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="K12" s="37"/>
       <c r="L12" s="57"/>
       <c r="M12" s="8"/>
       <c r="N12" s="10"/>
@@ -2575,7 +2569,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="95" t="s">
         <v>102</v>
       </c>
       <c r="D2" s="39"/>
@@ -2591,7 +2585,7 @@
       <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="101"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="39" t="s">
         <v>86</v>
       </c>
@@ -2618,18 +2612,18 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="97" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="67" t="s">
@@ -2653,8 +2647,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="103"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="67" t="s">
         <v>89</v>
       </c>
@@ -2674,8 +2668,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="103"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="67" t="s">
         <v>88</v>
       </c>
@@ -2697,8 +2691,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="103"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="67" t="s">
         <v>87</v>
       </c>
@@ -2722,8 +2716,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
-      <c r="B9" s="95" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="101" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -2749,8 +2743,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="96"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="67" t="s">
         <v>40</v>
       </c>
@@ -2774,8 +2768,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="96"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="67" t="s">
         <v>41</v>
       </c>
@@ -2799,8 +2793,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -2811,8 +2805,8 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="97"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="67"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2824,8 +2818,8 @@
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
-      <c r="B14" s="95" t="s">
+      <c r="A14" s="99"/>
+      <c r="B14" s="101" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="67" t="s">
@@ -2849,8 +2843,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="67" t="s">
         <v>42</v>
       </c>
@@ -2872,8 +2866,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
-      <c r="B16" s="97"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="67" t="s">
         <v>131</v>
       </c>
@@ -2893,8 +2887,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="95" t="s">
+      <c r="A17" s="99"/>
+      <c r="B17" s="101" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="67" t="s">
@@ -2914,8 +2908,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="67" t="s">
         <v>48</v>
       </c>
@@ -2933,8 +2927,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="67" t="s">
         <v>49</v>
       </c>
@@ -2952,8 +2946,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="67" t="s">
         <v>50</v>
       </c>
@@ -2971,8 +2965,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="96"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="67" t="s">
         <v>51</v>
       </c>
@@ -2990,8 +2984,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="96"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="67" t="s">
         <v>52</v>
       </c>
@@ -3009,7 +3003,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="73"/>
       <c r="C23" s="88"/>
       <c r="D23" s="8"/>
@@ -3021,7 +3015,7 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="101" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="70" t="s">
@@ -3040,7 +3034,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="70" t="s">
         <v>43</v>
       </c>
@@ -3057,7 +3051,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="70" t="s">
         <v>44</v>
       </c>
@@ -3074,7 +3068,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="70" t="s">
         <v>45</v>
       </c>
@@ -3091,7 +3085,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="96"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="70"/>
       <c r="C28" s="88"/>
       <c r="D28" s="8"/>
@@ -3104,7 +3098,7 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="70" t="s">
         <v>140</v>
       </c>
@@ -3137,7 +3131,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="98" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="69" t="s">
@@ -3157,7 +3151,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="70" t="s">
         <v>137</v>
       </c>
@@ -3177,7 +3171,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="70" t="s">
         <v>60</v>
       </c>
@@ -3215,7 +3209,7 @@
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="98" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="70" t="s">
@@ -3238,7 +3232,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="70" t="s">
         <v>62</v>
       </c>
@@ -3259,7 +3253,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="70" t="s">
         <v>63</v>
       </c>
@@ -3280,7 +3274,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="70" t="s">
         <v>98</v>
       </c>
@@ -3305,7 +3299,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="70" t="s">
         <v>64</v>
       </c>
@@ -3330,7 +3324,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="70" t="s">
         <v>65</v>
       </c>
@@ -3411,10 +3405,10 @@
       <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="92" t="s">
         <v>96</v>
       </c>
       <c r="C45" s="67" t="s">
@@ -3440,8 +3434,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="93"/>
-      <c r="B46" s="99"/>
+      <c r="A46" s="99"/>
+      <c r="B46" s="93"/>
       <c r="C46" s="67" t="s">
         <v>147</v>
       </c>
@@ -3461,8 +3455,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="93"/>
-      <c r="B47" s="99"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="93"/>
       <c r="C47" s="67"/>
       <c r="D47" s="8" t="s">
         <v>74</v>
@@ -3482,8 +3476,8 @@
       <c r="L47" s="89"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="93"/>
-      <c r="B48" s="100"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="94"/>
       <c r="C48" s="67"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3499,7 +3493,7 @@
       <c r="L48" s="89"/>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="93"/>
+      <c r="A49" s="99"/>
       <c r="B49" s="70" t="s">
         <v>93</v>
       </c>
@@ -3518,7 +3512,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="93"/>
+      <c r="A50" s="99"/>
       <c r="B50" s="70" t="s">
         <v>94</v>
       </c>
@@ -3539,7 +3533,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="70" t="s">
         <v>95</v>
       </c>
@@ -3558,7 +3552,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="98" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="70" t="s">
@@ -3588,7 +3582,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="70" t="s">
         <v>67</v>
       </c>
@@ -3621,7 +3615,7 @@
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="92" t="s">
+      <c r="A55" s="98" t="s">
         <v>68</v>
       </c>
       <c r="B55" s="70" t="s">
@@ -3653,7 +3647,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="93"/>
+      <c r="A56" s="99"/>
       <c r="B56" s="70" t="s">
         <v>70</v>
       </c>
@@ -3679,7 +3673,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="94"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="70" t="s">
         <v>71</v>
       </c>
@@ -3736,7 +3730,7 @@
       <c r="L59" s="8"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="92" t="s">
+      <c r="A60" s="98" t="s">
         <v>72</v>
       </c>
       <c r="B60" s="70" t="s">
@@ -3763,7 +3757,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="94"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="70" t="s">
         <v>100</v>
       </c>
@@ -3987,6 +3981,13 @@
   </sheetData>
   <autoFilter ref="L1:L78"/>
   <mergeCells count="15">
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A45:A51"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A4:C4"/>
@@ -3995,13 +3996,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A45:A51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="158">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -376,9 +376,6 @@
     <t>Encargado de evento curso - Agenda reuniones</t>
   </si>
   <si>
-    <t>Encargado de Novedades Institucionales - Web</t>
-  </si>
-  <si>
     <t>Gestor reportes complejos (consolidados-historicos-indicadores)</t>
   </si>
   <si>
@@ -424,9 +421,6 @@
     <t>Encargados Contenidos</t>
   </si>
   <si>
-    <t xml:space="preserve">encargado de Planificacion </t>
-  </si>
-  <si>
     <t>Encargado de Aprobar planificacion</t>
   </si>
   <si>
@@ -503,6 +497,27 @@
   </si>
   <si>
     <t xml:space="preserve">Notificador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado de Planificacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado de Novedades Institucionales </t>
+  </si>
+  <si>
+    <t>Usuario Publico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web </t>
+  </si>
+  <si>
+    <t>Consultar Novedades Institucionales</t>
+  </si>
+  <si>
+    <t>Consultar Pagina institucional</t>
+  </si>
+  <si>
+    <t>usuario publico</t>
   </si>
 </sst>
 </file>
@@ -1371,6 +1386,27 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1385,27 +1421,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1818,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:S33"/>
+  <dimension ref="D1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P25" sqref="P24:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,7 +1846,7 @@
     <col min="14" max="14" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:19" ht="138" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:19" ht="109.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -1893,7 +1908,7 @@
     </row>
     <row r="3" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D3" s="8" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
@@ -2039,7 +2054,7 @@
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D10" s="71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
@@ -2064,7 +2079,7 @@
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D11" s="71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
@@ -2091,10 +2106,14 @@
     </row>
     <row r="12" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D12" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+        <v>110</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G12" s="63"/>
       <c r="H12" s="62"/>
       <c r="I12" s="5" t="s">
@@ -2103,7 +2122,9 @@
       <c r="J12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="K12" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L12" s="57"/>
       <c r="M12" s="8"/>
       <c r="N12" s="10"/>
@@ -2112,7 +2133,7 @@
     </row>
     <row r="13" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="71" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13" s="91"/>
       <c r="F13" s="91"/>
@@ -2131,7 +2152,7 @@
     </row>
     <row r="14" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="72"/>
       <c r="F14" s="72"/>
@@ -2152,7 +2173,7 @@
     </row>
     <row r="15" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="64" t="s">
         <v>9</v>
@@ -2173,7 +2194,7 @@
     </row>
     <row r="16" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="71" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="E16" s="64" t="s">
         <v>9</v>
@@ -2192,7 +2213,7 @@
     </row>
     <row r="17" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E17" s="79"/>
       <c r="F17" s="80"/>
@@ -2211,7 +2232,7 @@
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D18" s="71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
@@ -2255,7 +2276,7 @@
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D20" s="71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>9</v>
@@ -2280,7 +2301,7 @@
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D21" s="71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
@@ -2324,7 +2345,7 @@
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D23" s="89" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
@@ -2351,7 +2372,7 @@
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D24" s="71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="8"/>
@@ -2370,66 +2391,79 @@
       <c r="P24" s="60"/>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D25" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="P25" s="60"/>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="87"/>
-    </row>
-    <row r="27" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="10"/>
+      <c r="D26" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="87"/>
     </row>
     <row r="28" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -2440,14 +2474,14 @@
     </row>
     <row r="29" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="48"/>
@@ -2457,15 +2491,15 @@
     </row>
     <row r="30" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="H30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="48"/>
       <c r="L30" s="56"/>
@@ -2474,40 +2508,57 @@
     </row>
     <row r="31" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="I31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="8"/>
       <c r="K31" s="48"/>
-      <c r="L31" s="31"/>
+      <c r="L31" s="56"/>
       <c r="M31" s="8"/>
       <c r="N31" s="10"/>
     </row>
     <row r="32" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="33" t="s">
-        <v>30</v>
+      <c r="D32" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="45"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
-    </row>
-    <row r="33" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="48"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="45"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+    </row>
+    <row r="34" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="33" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2521,9 +2572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,7 +2620,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="102" t="s">
         <v>102</v>
       </c>
       <c r="D2" s="39"/>
@@ -2585,7 +2636,7 @@
       <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="95"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="39" t="s">
         <v>86</v>
       </c>
@@ -2608,22 +2659,22 @@
         <v>80</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="92" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="67" t="s">
@@ -2643,12 +2694,12 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="97"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="67" t="s">
         <v>89</v>
       </c>
@@ -2664,12 +2715,12 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="97"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="67" t="s">
         <v>88</v>
       </c>
@@ -2687,12 +2738,12 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="99"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="67" t="s">
         <v>87</v>
       </c>
@@ -2712,12 +2763,12 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="101" t="s">
+      <c r="A9" s="94"/>
+      <c r="B9" s="96" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -2743,8 +2794,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="102"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="67" t="s">
         <v>40</v>
       </c>
@@ -2768,8 +2819,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
-      <c r="B11" s="102"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="67" t="s">
         <v>41</v>
       </c>
@@ -2793,8 +2844,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="97"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -2805,8 +2856,8 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="103"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="67"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2818,8 +2869,8 @@
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="101" t="s">
+      <c r="A14" s="94"/>
+      <c r="B14" s="96" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="67" t="s">
@@ -2839,12 +2890,12 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="L14" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="67" t="s">
         <v>42</v>
       </c>
@@ -2862,14 +2913,14 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="L15" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="94"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="67" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="67" t="s">
-        <v>131</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>74</v>
@@ -2883,12 +2934,12 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="L16" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
-      <c r="B17" s="101" t="s">
+      <c r="A17" s="94"/>
+      <c r="B17" s="96" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="67" t="s">
@@ -2904,12 +2955,12 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="L17" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="67" t="s">
         <v>48</v>
       </c>
@@ -2923,12 +2974,12 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="L18" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="67" t="s">
         <v>49</v>
       </c>
@@ -2942,12 +2993,12 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="L19" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="67" t="s">
         <v>50</v>
       </c>
@@ -2961,12 +3012,12 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="L20" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
-      <c r="B21" s="102"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="67" t="s">
         <v>51</v>
       </c>
@@ -2980,12 +3031,12 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="L21" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="67" t="s">
         <v>52</v>
       </c>
@@ -2999,11 +3050,11 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="L22" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="73"/>
       <c r="C23" s="88"/>
       <c r="D23" s="8"/>
@@ -3015,7 +3066,7 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="96" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="70" t="s">
@@ -3030,11 +3081,11 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="L24" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="70" t="s">
         <v>43</v>
       </c>
@@ -3047,11 +3098,11 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="L25" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
+      <c r="A26" s="97"/>
       <c r="B26" s="70" t="s">
         <v>44</v>
       </c>
@@ -3064,11 +3115,11 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="L26" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
+      <c r="A27" s="97"/>
       <c r="B27" s="70" t="s">
         <v>45</v>
       </c>
@@ -3081,11 +3132,11 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="L27" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
+      <c r="A28" s="97"/>
       <c r="B28" s="70"/>
       <c r="C28" s="88"/>
       <c r="D28" s="8"/>
@@ -3098,9 +3149,9 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C29" s="88"/>
       <c r="D29" s="8"/>
@@ -3111,13 +3162,13 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="L29" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -3127,15 +3178,15 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="L30" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="93" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -3147,13 +3198,13 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="L31" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>74</v>
@@ -3167,11 +3218,11 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="70" t="s">
         <v>60</v>
       </c>
@@ -3186,7 +3237,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="L33" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3209,7 +3260,7 @@
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="93" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="70" t="s">
@@ -3228,11 +3279,11 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="L35" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="99"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="70" t="s">
         <v>62</v>
       </c>
@@ -3249,11 +3300,11 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="L36" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="99"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="70" t="s">
         <v>63</v>
       </c>
@@ -3270,11 +3321,11 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="L37" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="99"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="70" t="s">
         <v>98</v>
       </c>
@@ -3295,11 +3346,11 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="L38" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="70" t="s">
         <v>64</v>
       </c>
@@ -3320,11 +3371,11 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="L39" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="100"/>
+      <c r="A40" s="95"/>
       <c r="B40" s="70" t="s">
         <v>65</v>
       </c>
@@ -3345,13 +3396,13 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="L40" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" s="70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="67"/>
       <c r="D41" s="8"/>
@@ -3405,14 +3456,14 @@
       <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="99" t="s">
         <v>96</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>74</v>
@@ -3430,14 +3481,14 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="L45" s="89" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="99"/>
-      <c r="B46" s="93"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3451,12 +3502,12 @@
         <v>74</v>
       </c>
       <c r="L46" s="89" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="99"/>
-      <c r="B47" s="93"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="67"/>
       <c r="D47" s="8" t="s">
         <v>74</v>
@@ -3471,13 +3522,13 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L47" s="89"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
-      <c r="B48" s="94"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="101"/>
       <c r="C48" s="67"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3493,7 +3544,7 @@
       <c r="L48" s="89"/>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="99"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="70" t="s">
         <v>93</v>
       </c>
@@ -3508,11 +3559,11 @@
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="L49" s="8" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="99"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="70" t="s">
         <v>94</v>
       </c>
@@ -3529,11 +3580,11 @@
         <v>74</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="100"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="70" t="s">
         <v>95</v>
       </c>
@@ -3548,11 +3599,11 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="L51" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="98" t="s">
+      <c r="A52" s="93" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="70" t="s">
@@ -3582,7 +3633,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="100"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="70" t="s">
         <v>67</v>
       </c>
@@ -3615,7 +3666,7 @@
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="98" t="s">
+      <c r="A55" s="93" t="s">
         <v>68</v>
       </c>
       <c r="B55" s="70" t="s">
@@ -3643,11 +3694,11 @@
         <v>74</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="99"/>
+      <c r="A56" s="94"/>
       <c r="B56" s="70" t="s">
         <v>70</v>
       </c>
@@ -3669,11 +3720,11 @@
         <v>74</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="100"/>
+      <c r="A57" s="95"/>
       <c r="B57" s="70" t="s">
         <v>71</v>
       </c>
@@ -3699,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3730,7 +3781,7 @@
       <c r="L59" s="8"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="98" t="s">
+      <c r="A60" s="93" t="s">
         <v>72</v>
       </c>
       <c r="B60" s="70" t="s">
@@ -3757,7 +3808,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="100"/>
+      <c r="A61" s="95"/>
       <c r="B61" s="70" t="s">
         <v>100</v>
       </c>
@@ -3812,7 +3863,7 @@
         <v>74</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3848,7 +3899,7 @@
         <v>74</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3913,16 +3964,38 @@
       <c r="L68" s="8"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C69" s="88"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
+      <c r="B69" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="L69" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C70" s="88"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="L70" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C71" s="88"/>
@@ -3980,7 +4053,15 @@
     </row>
   </sheetData>
   <autoFilter ref="L1:L78"/>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A5:A23"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B69:B70"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="A24:A29"/>
@@ -3989,13 +4070,6 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A5:A23"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B17:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="160">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>usuario publico</t>
+  </si>
+  <si>
+    <t>administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usuario </t>
   </si>
 </sst>
 </file>
@@ -654,7 +660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -817,21 +823,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -936,51 +927,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1187,11 +1133,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1259,10 +1262,9 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1278,85 +1280,82 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1377,7 +1376,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1386,10 +1385,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1398,7 +1403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1407,7 +1412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1416,12 +1421,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1833,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:S34"/>
+  <dimension ref="D1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P25" sqref="P24:P25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1855,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" ht="109.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="55" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -1871,18 +1879,18 @@
       <c r="K1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="4:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="67" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1896,15 +1904,15 @@
       <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
+      <c r="J2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D3" s="8" t="s">
@@ -1917,15 +1925,15 @@
       <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="56"/>
+      <c r="K3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="52"/>
       <c r="M3" s="8"/>
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="67" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1940,13 +1948,13 @@
         <v>74</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="57"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="8"/>
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="86" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1963,74 +1971,74 @@
       <c r="J5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="57"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="8"/>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="37"/>
+      <c r="E6" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="57"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="8"/>
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="37"/>
+      <c r="E7" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="57"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="53"/>
       <c r="M7" s="8"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="37"/>
+      <c r="E8" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="57"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="53"/>
       <c r="M8" s="8"/>
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="67" t="s">
         <v>109</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2047,13 +2055,13 @@
       <c r="J9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="57"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="53"/>
       <c r="M9" s="8"/>
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="67" t="s">
         <v>123</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2070,15 +2078,15 @@
       <c r="J10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="57"/>
+      <c r="K10" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="53"/>
       <c r="M10" s="8"/>
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="67" t="s">
         <v>121</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2087,7 +2095,7 @@
       <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="37"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2097,15 +2105,15 @@
       <c r="J11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="57"/>
+      <c r="K11" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="53"/>
       <c r="M11" s="8"/>
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="67" t="s">
         <v>110</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2114,8 +2122,8 @@
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="62"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="58"/>
       <c r="I12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2125,136 +2133,136 @@
       <c r="K12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="57"/>
+      <c r="L12" s="53"/>
       <c r="M12" s="8"/>
       <c r="N12" s="10"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
     </row>
     <row r="13" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="61"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="57"/>
       <c r="M13" s="8"/>
       <c r="N13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
     </row>
     <row r="14" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="66" t="s">
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="62" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="61"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="8"/>
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="74"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="61"/>
+      <c r="E15" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="57"/>
       <c r="M15" s="8"/>
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="78"/>
-      <c r="L16" s="61"/>
+      <c r="E16" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="74"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="8"/>
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="56"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="79"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="8"/>
       <c r="N17" s="10"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="67" t="s">
         <v>130</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="64" t="s">
+      <c r="F18" s="70"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="60" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="58"/>
+      <c r="L18" s="54"/>
       <c r="M18" s="8"/>
       <c r="N18" s="10"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="67" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="9"/>
@@ -2267,15 +2275,15 @@
       <c r="J19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="56"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="8"/>
       <c r="N19" s="10"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="67" t="s">
         <v>141</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2296,11 +2304,11 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -2319,11 +2327,11 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="67" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="9"/>
@@ -2340,11 +2348,11 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="85" t="s">
         <v>147</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2353,8 +2361,8 @@
       <c r="F23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="5" t="s">
         <v>9</v>
       </c>
@@ -2367,11 +2375,11 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="67" t="s">
         <v>148</v>
       </c>
       <c r="E24" s="9"/>
@@ -2388,10 +2396,10 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
-      <c r="P24" s="60"/>
+      <c r="P24" s="56"/>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="67" t="s">
         <v>153</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -2418,10 +2426,10 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="P25" s="60"/>
+      <c r="P25" s="56"/>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="85" t="s">
         <v>150</v>
       </c>
       <c r="E26" s="9"/>
@@ -2438,7 +2446,7 @@
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="67" t="s">
         <v>143</v>
       </c>
       <c r="F27" s="7"/>
@@ -2450,116 +2458,150 @@
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="57"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="53"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="87"/>
+      <c r="N27" s="83"/>
     </row>
     <row r="28" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="56"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="105"/>
       <c r="M28" s="8"/>
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="56"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="105"/>
       <c r="M29" s="8"/>
       <c r="N29" s="10"/>
     </row>
     <row r="30" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="56"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="105"/>
       <c r="M30" s="8"/>
       <c r="N30" s="10"/>
     </row>
     <row r="31" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="56"/>
+      <c r="H31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="105"/>
       <c r="M31" s="8"/>
       <c r="N31" s="10"/>
     </row>
     <row r="32" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="48"/>
-      <c r="L32" s="31"/>
+      <c r="I32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="44"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="8"/>
       <c r="N32" s="10"/>
     </row>
     <row r="33" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="104"/>
     </row>
     <row r="34" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="100" t="s">
         <v>32</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D35" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D36" s="101" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2574,14 +2616,14 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="69" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="68" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="65" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="64" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
@@ -2594,90 +2636,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="102"/>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="41" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="63" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -2698,9 +2740,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="67" t="s">
+      <c r="A6" s="92"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="63" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2719,9 +2761,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="67" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="63" t="s">
         <v>88</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2742,9 +2784,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="67" t="s">
+      <c r="A8" s="92"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="63" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2767,11 +2809,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="96" t="s">
+      <c r="A9" s="92"/>
+      <c r="B9" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2794,9 +2836,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="67" t="s">
+      <c r="A10" s="92"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2819,9 +2861,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="67" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="63" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2844,8 +2886,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="95"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -2856,9 +2898,9 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="67"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -2869,11 +2911,11 @@
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="96" t="s">
+      <c r="A14" s="92"/>
+      <c r="B14" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="63" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2894,9 +2936,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="67" t="s">
+      <c r="A15" s="92"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="63" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2917,9 +2959,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="67" t="s">
+      <c r="A16" s="92"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="63" t="s">
         <v>129</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2938,11 +2980,11 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="96" t="s">
+      <c r="A17" s="92"/>
+      <c r="B17" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="63" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2959,9 +3001,9 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="67" t="s">
+      <c r="A18" s="92"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2978,9 +3020,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="67" t="s">
+      <c r="A19" s="92"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="63" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2997,9 +3039,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="67" t="s">
+      <c r="A20" s="92"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="63" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -3016,9 +3058,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="67" t="s">
+      <c r="A21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="63" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -3035,9 +3077,9 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="67" t="s">
+      <c r="A22" s="92"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="63" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -3054,9 +3096,9 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="88"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -3066,13 +3108,13 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="88"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -3085,11 +3127,11 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="70" t="s">
+      <c r="A25" s="95"/>
+      <c r="B25" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="88"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3102,11 +3144,11 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="70" t="s">
+      <c r="A26" s="95"/>
+      <c r="B26" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="88"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -3119,11 +3161,11 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="95"/>
+      <c r="B27" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="88"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -3136,9 +3178,9 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="88"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -3149,11 +3191,11 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="96"/>
+      <c r="B29" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="88"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -3166,8 +3208,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="70" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="66" t="s">
         <v>136</v>
       </c>
       <c r="D30" s="8"/>
@@ -3182,10 +3224,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="65" t="s">
         <v>134</v>
       </c>
       <c r="D31" s="8"/>
@@ -3202,8 +3244,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
-      <c r="B32" s="70" t="s">
+      <c r="A32" s="92"/>
+      <c r="B32" s="66" t="s">
         <v>135</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -3222,11 +3264,11 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="70" t="s">
+      <c r="A33" s="93"/>
+      <c r="B33" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="67"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="8" t="s">
         <v>74</v>
       </c>
@@ -3241,9 +3283,9 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="67"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="8" t="s">
         <v>74</v>
       </c>
@@ -3260,13 +3302,13 @@
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="67"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -3283,11 +3325,11 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="70" t="s">
+      <c r="A36" s="92"/>
+      <c r="B36" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="67"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -3304,11 +3346,11 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="70" t="s">
+      <c r="A37" s="92"/>
+      <c r="B37" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="67"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -3325,11 +3367,11 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
-      <c r="B38" s="70" t="s">
+      <c r="A38" s="92"/>
+      <c r="B38" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="67"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="8" t="s">
         <v>74</v>
       </c>
@@ -3350,11 +3392,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
-      <c r="B39" s="70" t="s">
+      <c r="A39" s="92"/>
+      <c r="B39" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="67"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="8" t="s">
         <v>74</v>
       </c>
@@ -3375,11 +3417,11 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
-      <c r="B40" s="70" t="s">
+      <c r="A40" s="93"/>
+      <c r="B40" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="67"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="8" t="s">
         <v>74</v>
       </c>
@@ -3400,11 +3442,11 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="70" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -3418,8 +3460,8 @@
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="C42" s="67"/>
+      <c r="A42" s="43"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -3430,9 +3472,9 @@
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="67"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -3443,9 +3485,9 @@
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="67"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -3456,13 +3498,13 @@
       <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="63" t="s">
         <v>114</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -3480,14 +3522,14 @@
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="L45" s="89" t="s">
+      <c r="L45" s="85" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="67" t="s">
+      <c r="A46" s="92"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="63" t="s">
         <v>145</v>
       </c>
       <c r="D46" s="8"/>
@@ -3501,14 +3543,14 @@
       <c r="J46" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L46" s="89" t="s">
+      <c r="L46" s="85" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="67"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="8" t="s">
         <v>74</v>
       </c>
@@ -3524,12 +3566,12 @@
       <c r="J47" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="L47" s="89"/>
+      <c r="L47" s="85"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="94"/>
-      <c r="B48" s="101"/>
-      <c r="C48" s="67"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -3541,14 +3583,14 @@
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-      <c r="L48" s="89"/>
+      <c r="L48" s="85"/>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="94"/>
-      <c r="B49" s="70" t="s">
+      <c r="A49" s="92"/>
+      <c r="B49" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="67"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -3563,11 +3605,11 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="94"/>
-      <c r="B50" s="70" t="s">
+      <c r="A50" s="92"/>
+      <c r="B50" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="67"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -3584,11 +3626,11 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="95"/>
-      <c r="B51" s="70" t="s">
+      <c r="A51" s="93"/>
+      <c r="B51" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="67"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -3603,13 +3645,13 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="93" t="s">
+      <c r="A52" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="70" t="s">
+      <c r="B52" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="67"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="8" t="s">
         <v>74</v>
       </c>
@@ -3633,12 +3675,12 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="95"/>
-      <c r="B53" s="70" t="s">
+      <c r="A53" s="93"/>
+      <c r="B53" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -3653,9 +3695,9 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="67"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -3666,10 +3708,10 @@
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="93" t="s">
+      <c r="A55" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -3698,8 +3740,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="94"/>
-      <c r="B56" s="70" t="s">
+      <c r="A56" s="92"/>
+      <c r="B56" s="66" t="s">
         <v>70</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -3724,8 +3766,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="95"/>
-      <c r="B57" s="70" t="s">
+      <c r="A57" s="93"/>
+      <c r="B57" s="66" t="s">
         <v>71</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -3754,8 +3796,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="70"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="66"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
@@ -3768,9 +3810,9 @@
       <c r="L58" s="8"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="67"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -3781,13 +3823,13 @@
       <c r="L59" s="8"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="93" t="s">
+      <c r="A60" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="67"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="8" t="s">
         <v>74</v>
       </c>
@@ -3808,11 +3850,11 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="95"/>
-      <c r="B61" s="70" t="s">
+      <c r="A61" s="93"/>
+      <c r="B61" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="67"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -3827,9 +3869,9 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="67"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -3840,13 +3882,13 @@
       <c r="L62" s="8"/>
     </row>
     <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="67"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
@@ -3867,9 +3909,9 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="67"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -3880,13 +3922,13 @@
       <c r="L64" s="8"/>
     </row>
     <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="67"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -3903,9 +3945,9 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="67"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -3916,11 +3958,11 @@
       <c r="L66" s="8"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="70" t="s">
+      <c r="A67" s="34"/>
+      <c r="B67" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="67"/>
+      <c r="C67" s="63"/>
       <c r="D67" s="8" t="s">
         <v>74</v>
       </c>
@@ -3941,11 +3983,11 @@
       <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="70" t="s">
+      <c r="A68" s="34"/>
+      <c r="B68" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="67"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -3964,10 +4006,10 @@
       <c r="L68" s="8"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="C69" s="67" t="s">
+      <c r="C69" s="63" t="s">
         <v>155</v>
       </c>
       <c r="D69" s="8"/>
@@ -3982,8 +4024,8 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="92"/>
-      <c r="C70" s="67" t="s">
+      <c r="B70" s="90"/>
+      <c r="C70" s="63" t="s">
         <v>156</v>
       </c>
       <c r="D70" s="8"/>
@@ -3998,69 +4040,62 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C71" s="88"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C72" s="88"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C73" s="88"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C74" s="88"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C75" s="88"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C76" s="88"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C77" s="88"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C78" s="88"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C79" s="88"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="L1:L78"/>
   <mergeCells count="16">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A5:A23"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B17:B22"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A60:A61"/>
@@ -4070,6 +4105,13 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A5:A23"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B17:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="159">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Director</t>
-  </si>
-  <si>
-    <t>Gestor de Monitoreo</t>
   </si>
   <si>
     <t>Secretaria</t>
@@ -418,9 +415,6 @@
     <t>Encargado de crear citaciones.</t>
   </si>
   <si>
-    <t>Encargados Contenidos</t>
-  </si>
-  <si>
     <t>Encargado de Aprobar planificacion</t>
   </si>
   <si>
@@ -487,12 +481,6 @@
     <t>Mensajero a personal de mi curso</t>
   </si>
   <si>
-    <t>mensajero de curso</t>
-  </si>
-  <si>
-    <t>mensajero a personal de me curso</t>
-  </si>
-  <si>
     <t>gestor de reorte de accesos</t>
   </si>
   <si>
@@ -524,6 +512,15 @@
   </si>
   <si>
     <t xml:space="preserve">usuario </t>
+  </si>
+  <si>
+    <t>Encargado de Monitoreo(indicadores)</t>
+  </si>
+  <si>
+    <t>Mensajero a personal de me curso</t>
+  </si>
+  <si>
+    <t>Encargados Contenidos oficiales</t>
   </si>
 </sst>
 </file>
@@ -610,7 +607,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,8 +656,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1065,21 +1068,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1194,7 +1182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1318,12 +1306,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1337,25 +1319,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,16 +1346,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1385,51 +1361,68 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,7 +1727,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,7 +1849,7 @@
   <sheetData>
     <row r="1" spans="4:19" ht="109.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
@@ -1877,7 +1870,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L1" s="45" t="s">
         <v>10</v>
@@ -1886,11 +1879,11 @@
         <v>11</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="4:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="65" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1902,13 +1895,13 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="49"/>
       <c r="M2" s="50"/>
@@ -1916,7 +1909,7 @@
     </row>
     <row r="3" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D3" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
@@ -1933,7 +1926,7 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="65" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1945,7 +1938,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="48"/>
@@ -1954,8 +1947,8 @@
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D5" s="86" t="s">
-        <v>105</v>
+      <c r="D5" s="82" t="s">
+        <v>104</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
@@ -1969,7 +1962,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="53"/>
@@ -1977,20 +1970,20 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D6" s="67" t="s">
-        <v>106</v>
+      <c r="D6" s="97" t="s">
+        <v>105</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="36"/>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="53"/>
@@ -1998,20 +1991,20 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D7" s="67" t="s">
-        <v>107</v>
+      <c r="D7" s="97" t="s">
+        <v>106</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="36"/>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="53"/>
@@ -2019,18 +2012,18 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="67" t="s">
-        <v>108</v>
+      <c r="D8" s="97" t="s">
+        <v>107</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="36"/>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="53"/>
@@ -2038,8 +2031,8 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="67" t="s">
-        <v>109</v>
+      <c r="D9" s="97" t="s">
+        <v>108</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
@@ -2050,10 +2043,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="53"/>
@@ -2061,8 +2054,8 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D10" s="67" t="s">
-        <v>123</v>
+      <c r="D10" s="65" t="s">
+        <v>122</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
@@ -2086,8 +2079,8 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D11" s="67" t="s">
-        <v>121</v>
+      <c r="D11" s="65" t="s">
+        <v>120</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
@@ -2113,44 +2106,44 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D12" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="94" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="59"/>
       <c r="H12" s="58"/>
-      <c r="I12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="53"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="10"/>
+      <c r="I12" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="54"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="89"/>
       <c r="R12" s="56"/>
       <c r="S12" s="56"/>
     </row>
-    <row r="13" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="77"/>
+    <row r="13" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D13" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="57"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="5" t="s">
         <v>9</v>
@@ -2159,34 +2152,34 @@
       <c r="S13" s="56"/>
     </row>
     <row r="14" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="D14" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="57"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="10"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="79"/>
     </row>
     <row r="15" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="67" t="s">
-        <v>124</v>
+      <c r="D15" s="65" t="s">
+        <v>158</v>
       </c>
       <c r="E15" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="37"/>
       <c r="H15" s="35"/>
       <c r="I15" s="37"/>
@@ -2201,37 +2194,37 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="67" t="s">
-        <v>151</v>
+      <c r="D16" s="65" t="s">
+        <v>147</v>
       </c>
       <c r="E16" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="73"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="74"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="57"/>
       <c r="M16" s="8"/>
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="D17" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="79"/>
+      <c r="K17" s="76"/>
       <c r="L17" s="52"/>
       <c r="M17" s="8"/>
       <c r="N17" s="10"/>
@@ -2239,16 +2232,16 @@
       <c r="Q17" s="56"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="67" t="s">
-        <v>130</v>
+      <c r="D18" s="65" t="s">
+        <v>128</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="82"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="60" t="s">
         <v>9</v>
       </c>
@@ -2262,8 +2255,8 @@
       <c r="Q18" s="56"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="67" t="s">
-        <v>31</v>
+      <c r="D19" s="65" t="s">
+        <v>156</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
@@ -2283,8 +2276,8 @@
       <c r="Q19" s="56"/>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="67" t="s">
-        <v>141</v>
+      <c r="D20" s="65" t="s">
+        <v>139</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>9</v>
@@ -2308,8 +2301,8 @@
       <c r="Q20" s="56"/>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D21" s="67" t="s">
-        <v>112</v>
+      <c r="D21" s="65" t="s">
+        <v>111</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
@@ -2331,7 +2324,7 @@
       <c r="Q21" s="56"/>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="65" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="9"/>
@@ -2352,8 +2345,8 @@
       <c r="Q22" s="56"/>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="85" t="s">
-        <v>147</v>
+      <c r="D23" s="81" t="s">
+        <v>142</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
@@ -2379,8 +2372,8 @@
       <c r="Q23" s="56"/>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="67" t="s">
-        <v>148</v>
+      <c r="D24" s="65" t="s">
+        <v>157</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="8"/>
@@ -2399,8 +2392,8 @@
       <c r="P24" s="56"/>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="67" t="s">
-        <v>153</v>
+      <c r="D25" s="65" t="s">
+        <v>149</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
@@ -2429,8 +2422,8 @@
       <c r="P25" s="56"/>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="85" t="s">
-        <v>150</v>
+      <c r="D26" s="81" t="s">
+        <v>146</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="8"/>
@@ -2446,8 +2439,8 @@
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="67" t="s">
-        <v>143</v>
+      <c r="D27" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="3" t="s">
@@ -2461,7 +2454,7 @@
       <c r="K27" s="48"/>
       <c r="L27" s="53"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="83"/>
+      <c r="N27" s="79"/>
     </row>
     <row r="28" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="31" t="s">
@@ -2476,7 +2469,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="44"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="105"/>
+      <c r="L28" s="90"/>
       <c r="M28" s="8"/>
       <c r="N28" s="10"/>
     </row>
@@ -2493,7 +2486,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="44"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="105"/>
+      <c r="L29" s="90"/>
       <c r="M29" s="8"/>
       <c r="N29" s="10"/>
     </row>
@@ -2510,7 +2503,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="44"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="105"/>
+      <c r="L30" s="90"/>
       <c r="M30" s="8"/>
       <c r="N30" s="10"/>
     </row>
@@ -2527,7 +2520,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="44"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="105"/>
+      <c r="L31" s="90"/>
       <c r="M31" s="8"/>
       <c r="N31" s="10"/>
     </row>
@@ -2552,22 +2545,22 @@
       <c r="D33" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="103" t="s">
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="88" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="8"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="104"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="89"/>
     </row>
     <row r="34" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="100" t="s">
-        <v>32</v>
+      <c r="D34" s="85" t="s">
+        <v>31</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -2583,8 +2576,8 @@
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35" s="101" t="s">
-        <v>158</v>
+      <c r="D35" s="86" t="s">
+        <v>154</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -2600,8 +2593,8 @@
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D36" s="101" t="s">
-        <v>159</v>
+      <c r="D36" s="92" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2614,16 +2607,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="65" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="62" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
@@ -2646,10 +2639,10 @@
         <v>25</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>27</v>
@@ -2658,236 +2651,236 @@
         <v>28</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="88" t="s">
-        <v>102</v>
+      <c r="C2" s="108" t="s">
+        <v>101</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="88"/>
+      <c r="C3" s="108"/>
       <c r="D3" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="38" t="s">
-        <v>80</v>
-      </c>
       <c r="L3" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="A4" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>90</v>
+      <c r="C5" s="61" t="s">
+        <v>89</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="63" t="s">
-        <v>89</v>
+      <c r="A6" s="100"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="61" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="63" t="s">
-        <v>88</v>
+      <c r="A7" s="100"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="61" t="s">
+        <v>87</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="63" t="s">
-        <v>87</v>
+      <c r="A8" s="100"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="61" t="s">
+        <v>86</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
-      <c r="B9" s="94" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="63" t="s">
-        <v>39</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="63" t="s">
-        <v>40</v>
+      <c r="A10" s="100"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="61" t="s">
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="63" t="s">
-        <v>41</v>
+      <c r="A11" s="100"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="103"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -2898,9 +2891,9 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -2911,84 +2904,84 @@
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>53</v>
+      <c r="A14" s="100"/>
+      <c r="B14" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="L14" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="63" t="s">
-        <v>42</v>
+      <c r="A15" s="100"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="61" t="s">
+        <v>41</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="L15" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="100"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="61" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="63" t="s">
-        <v>129</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="L16" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="94" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="63" t="s">
-        <v>47</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -2997,17 +2990,17 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="L17" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="63" t="s">
-        <v>48</v>
+      <c r="A18" s="100"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -3016,17 +3009,17 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="L18" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="63" t="s">
-        <v>49</v>
+      <c r="A19" s="100"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -3035,17 +3028,17 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="L19" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="63" t="s">
-        <v>50</v>
+      <c r="A20" s="100"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="61" t="s">
+        <v>49</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -3054,17 +3047,17 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="L20" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="63" t="s">
-        <v>51</v>
+      <c r="A21" s="100"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="61" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -3073,17 +3066,17 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="L21" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="63" t="s">
-        <v>52</v>
+      <c r="A22" s="100"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="61" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -3092,13 +3085,13 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="L22" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="84"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -3108,13 +3101,13 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="84"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -3123,15 +3116,15 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="L24" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="84"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="80"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3140,15 +3133,15 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="L25" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="84"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="80"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -3157,15 +3150,15 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="L26" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
-      <c r="B27" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="84"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="80"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -3174,13 +3167,13 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="L27" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="84"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="80"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -3191,11 +3184,11 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="96"/>
-      <c r="B29" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="84"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="80"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -3204,13 +3197,13 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="L29" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
-      <c r="B30" s="66" t="s">
-        <v>136</v>
+      <c r="B30" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -3220,57 +3213,57 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="L30" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>134</v>
+      <c r="A31" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>132</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="L31" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="66" t="s">
-        <v>135</v>
+      <c r="A32" s="100"/>
+      <c r="B32" s="64" t="s">
+        <v>133</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="93"/>
-      <c r="B33" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="63"/>
+      <c r="A33" s="101"/>
+      <c r="B33" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="61"/>
       <c r="D33" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -3279,21 +3272,21 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="L33" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -3301,152 +3294,152 @@
       <c r="J34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="63"/>
+    <row r="35" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="61"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="L35" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="63"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="61"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="L36" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="92"/>
-      <c r="B37" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="63"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="61"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="L37" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
-      <c r="B38" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="63"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="61"/>
       <c r="D38" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="L38" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
-      <c r="B39" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="63"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="61"/>
       <c r="D39" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="L39" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
-      <c r="B40" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="63"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="61"/>
       <c r="D40" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="L40" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
-      <c r="B41" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="63"/>
+      <c r="B41" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="61"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -3455,13 +3448,13 @@
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
-      <c r="C42" s="63"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -3473,8 +3466,8 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="63"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -3486,8 +3479,8 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="63"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -3498,39 +3491,39 @@
       <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="63" t="s">
-        <v>114</v>
+      <c r="A45" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="105" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="L45" s="85" t="s">
-        <v>144</v>
+      <c r="L45" s="81" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="92"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="63" t="s">
-        <v>145</v>
+      <c r="A46" s="100"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="61" t="s">
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3538,149 +3531,149 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L46" s="85" t="s">
-        <v>146</v>
+        <v>73</v>
+      </c>
+      <c r="L46" s="81" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="92"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="63"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L47" s="85"/>
+        <v>115</v>
+      </c>
+      <c r="L47" s="81"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="92"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="96"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-      <c r="L48" s="85"/>
+      <c r="L48" s="81"/>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="92"/>
-      <c r="B49" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="63"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="80"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="L49" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="92"/>
-      <c r="B50" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="63"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="80"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="93"/>
-      <c r="B51" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="63"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="80"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="L51" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="63"/>
+      <c r="A52" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="80"/>
       <c r="D52" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="93"/>
-      <c r="B53" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
+      <c r="A53" s="101"/>
+      <c r="B53" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="80"/>
+      <c r="D53" s="61"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -3688,16 +3681,16 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="63"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="80"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -3708,100 +3701,104 @@
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="91" t="s">
+      <c r="A55" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="C55" s="80"/>
+      <c r="D55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="100"/>
+      <c r="B56" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="92"/>
-      <c r="B56" s="66" t="s">
-        <v>70</v>
-      </c>
+      <c r="C56" s="80"/>
       <c r="D56" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="93"/>
-      <c r="B57" s="66" t="s">
-        <v>71</v>
-      </c>
+      <c r="A57" s="101"/>
+      <c r="B57" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="80"/>
       <c r="D57" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
-      <c r="B58" s="66"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="80"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -3811,8 +3808,8 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="63"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="80"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -3823,25 +3820,25 @@
       <c r="L59" s="8"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="63"/>
+      <c r="A60" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="80"/>
       <c r="D60" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -3850,18 +3847,18 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="93"/>
-      <c r="B61" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="63"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="80"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J61" s="8"/>
       <c r="L61" s="8" t="s">
@@ -3870,8 +3867,8 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="34"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="63"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="80"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -3883,35 +3880,35 @@
     </row>
     <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" s="63"/>
+        <v>35</v>
+      </c>
+      <c r="B63" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="80"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="34"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="63"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="80"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -3923,31 +3920,31 @@
     </row>
     <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="63"/>
+      <c r="C65" s="80"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="34"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="63"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="80"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -3959,58 +3956,58 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="34"/>
-      <c r="B67" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="63"/>
+      <c r="B67" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="80"/>
       <c r="D67" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="34"/>
-      <c r="B68" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="63"/>
+      <c r="B68" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="80"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L68" s="8"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="C69" s="63" t="s">
-        <v>155</v>
+      <c r="B69" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="61" t="s">
+        <v>151</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -4020,13 +4017,13 @@
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="L69" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="90"/>
-      <c r="C70" s="63" t="s">
-        <v>156</v>
+      <c r="B70" s="98"/>
+      <c r="C70" s="61" t="s">
+        <v>152</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -4036,59 +4033,59 @@
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="L70" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C71" s="84"/>
+      <c r="C71" s="80"/>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
       <c r="F71" s="56"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C72" s="84"/>
+      <c r="C72" s="80"/>
       <c r="D72" s="56"/>
       <c r="E72" s="56"/>
       <c r="F72" s="56"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C73" s="84"/>
+      <c r="C73" s="80"/>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
       <c r="F73" s="56"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C74" s="84"/>
+      <c r="C74" s="80"/>
       <c r="D74" s="56"/>
       <c r="E74" s="56"/>
       <c r="F74" s="56"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C75" s="84"/>
+      <c r="C75" s="80"/>
       <c r="D75" s="56"/>
       <c r="E75" s="56"/>
       <c r="F75" s="56"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C76" s="84"/>
+      <c r="C76" s="80"/>
       <c r="D76" s="56"/>
       <c r="E76" s="56"/>
       <c r="F76" s="56"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C77" s="84"/>
+      <c r="C77" s="80"/>
       <c r="D77" s="56"/>
       <c r="E77" s="56"/>
       <c r="F77" s="56"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C78" s="84"/>
+      <c r="C78" s="80"/>
       <c r="D78" s="56"/>
       <c r="E78" s="56"/>
       <c r="F78" s="56"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C79" s="84"/>
+      <c r="C79" s="80"/>
       <c r="D79" s="56"/>
       <c r="E79" s="56"/>
       <c r="F79" s="56"/>
@@ -4096,6 +4093,13 @@
   </sheetData>
   <autoFilter ref="L1:L78"/>
   <mergeCells count="16">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A5:A23"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B17:B22"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A60:A61"/>
@@ -4105,13 +4109,6 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A5:A23"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B17:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="19440" windowHeight="7875" tabRatio="413" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="19440" windowHeight="7875" tabRatio="413" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de cambios" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Acceso-Perfil" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Acceso-Perfil'!$L$1:$L$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Acceso-Perfil'!$L$1:$L$62</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="159">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -391,9 +391,6 @@
     <t>accesos</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Encargado de  Registro clases</t>
   </si>
   <si>
@@ -521,6 +518,9 @@
   </si>
   <si>
     <t>Encargados Contenidos oficiales</t>
+  </si>
+  <si>
+    <t>belunchis</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
     <numFmt numFmtId="164" formatCode="d/mmm/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +606,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,8 +670,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -700,21 +714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -734,30 +733,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -829,34 +804,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -943,8 +890,202 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -955,76 +1096,67 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="double">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1032,20 +1164,218 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
-      <diagonal style="medium">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1056,10 +1386,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1069,37 +1399,20 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1109,20 +1422,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1130,50 +1445,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1182,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1190,12 +1461,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1204,21 +1475,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1250,15 +1514,10 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1268,42 +1527,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1315,27 +1562,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1345,83 +1585,193 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1739,60 +2089,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
+      <c r="A2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="20">
         <v>40678</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1803,28 +2153,28 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,42 +2198,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" ht="109.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="127" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="4:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="128" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1897,36 +2247,37 @@
       <c r="I2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
+      <c r="J2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="129"/>
     </row>
     <row r="3" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D3" s="8" t="s">
-        <v>148</v>
+      <c r="D3" s="130" t="s">
+        <v>147</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="52"/>
+      <c r="K3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="41"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="84"/>
     </row>
     <row r="4" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="128" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1941,13 +2292,13 @@
         <v>73</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="53"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="84"/>
     </row>
     <row r="5" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="131" t="s">
         <v>104</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1964,74 +2315,74 @@
       <c r="J5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="53"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="10"/>
+      <c r="N5" s="84"/>
     </row>
     <row r="6" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="36"/>
+      <c r="E6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="53"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="10"/>
+      <c r="N6" s="84"/>
     </row>
     <row r="7" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="36"/>
+      <c r="E7" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="53"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="42"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="10"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="8" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="53"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="10"/>
+      <c r="N8" s="84"/>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="132" t="s">
         <v>108</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2048,14 +2399,14 @@
       <c r="J9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="53"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="42"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="84"/>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D10" s="65" t="s">
-        <v>122</v>
+      <c r="D10" s="128" t="s">
+        <v>121</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
@@ -2071,16 +2422,16 @@
       <c r="J10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="53"/>
+      <c r="K10" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="42"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="10"/>
+      <c r="N10" s="84"/>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D11" s="65" t="s">
-        <v>120</v>
+      <c r="D11" s="128" t="s">
+        <v>119</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
@@ -2088,7 +2439,7 @@
       <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2098,67 +2449,67 @@
       <c r="J11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="53"/>
+      <c r="K11" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="42"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="10"/>
+      <c r="N11" s="84"/>
     </row>
     <row r="12" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="94" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="94" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="94" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="94" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="54"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="89"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
+      <c r="E12" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="133"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="D13" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
     </row>
     <row r="14" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
       <c r="I14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2168,95 +2519,95 @@
       <c r="K14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="57"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="79"/>
+      <c r="N14" s="95"/>
     </row>
     <row r="15" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="57"/>
+      <c r="D15" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="45"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="10"/>
+      <c r="N15" s="84"/>
     </row>
     <row r="16" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="71"/>
-      <c r="L16" s="57"/>
+      <c r="D16" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="56"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="10"/>
+      <c r="N16" s="84"/>
     </row>
     <row r="17" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="76"/>
-      <c r="L17" s="52"/>
+      <c r="D17" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="61"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="10"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
+      <c r="N17" s="84"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="65" t="s">
-        <v>128</v>
+      <c r="D18" s="128" t="s">
+        <v>127</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="60" t="s">
+      <c r="F18" s="52"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="48" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="54"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="10"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
+      <c r="N18" s="84"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="65" t="s">
-        <v>156</v>
+      <c r="D19" s="128" t="s">
+        <v>155</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
@@ -2268,16 +2619,16 @@
       <c r="J19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="52"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="10"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
+      <c r="N19" s="84"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="65" t="s">
-        <v>139</v>
+      <c r="D20" s="128" t="s">
+        <v>138</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>9</v>
@@ -2296,12 +2647,12 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
+      <c r="N20" s="84"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="128" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -2319,12 +2670,12 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
+      <c r="N21" s="84"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="128" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="9"/>
@@ -2340,13 +2691,13 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
+      <c r="N22" s="84"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="81" t="s">
-        <v>142</v>
+      <c r="D23" s="135" t="s">
+        <v>141</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
@@ -2354,8 +2705,8 @@
       <c r="F23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="5" t="s">
         <v>9</v>
       </c>
@@ -2367,13 +2718,13 @@
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
+      <c r="N23" s="84"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="65" t="s">
-        <v>157</v>
+      <c r="D24" s="128" t="s">
+        <v>156</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="8"/>
@@ -2388,12 +2739,12 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="P24" s="56"/>
+      <c r="N24" s="84"/>
+      <c r="P24" s="44"/>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="65" t="s">
-        <v>149</v>
+      <c r="D25" s="128" t="s">
+        <v>148</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
@@ -2418,12 +2769,12 @@
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="P25" s="56"/>
+      <c r="N25" s="136"/>
+      <c r="P25" s="44"/>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="81" t="s">
-        <v>146</v>
+      <c r="D26" s="135" t="s">
+        <v>145</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="8"/>
@@ -2434,14 +2785,15 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="137" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="65" t="s">
-        <v>141</v>
-      </c>
+      <c r="D27" s="128" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="44"/>
       <c r="F27" s="7"/>
       <c r="G27" s="3" t="s">
         <v>9</v>
@@ -2451,13 +2803,13 @@
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="53"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="79"/>
+      <c r="N27" s="95"/>
     </row>
     <row r="28" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="138" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -2467,14 +2819,14 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="44"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="90"/>
+      <c r="L28" s="68"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="10"/>
+      <c r="N28" s="84"/>
     </row>
     <row r="29" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="138" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="8"/>
@@ -2484,14 +2836,14 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="44"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="90"/>
+      <c r="L29" s="68"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="10"/>
+      <c r="N29" s="84"/>
     </row>
     <row r="30" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="138" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="8"/>
@@ -2501,14 +2853,14 @@
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="44"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="90"/>
+      <c r="L30" s="68"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="10"/>
+      <c r="N30" s="84"/>
     </row>
     <row r="31" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="138" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="8"/>
@@ -2518,14 +2870,14 @@
         <v>9</v>
       </c>
       <c r="I31" s="8"/>
-      <c r="J31" s="44"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="90"/>
+      <c r="L31" s="68"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="10"/>
+      <c r="N31" s="84"/>
     </row>
     <row r="32" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="138" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="8"/>
@@ -2535,31 +2887,31 @@
       <c r="I32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="44"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="10"/>
+      <c r="N32" s="84"/>
     </row>
     <row r="33" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="88" t="s">
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="67" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="8"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="89"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="133"/>
     </row>
     <row r="34" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="140" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="8"/>
@@ -2573,28 +2925,28 @@
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35" s="86" t="s">
+      <c r="N34" s="84"/>
+    </row>
+    <row r="35" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="142" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="87"/>
+      <c r="N35" s="89"/>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D36" s="123" t="s">
         <v>154</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D36" s="92" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2605,137 +2957,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4:L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="63" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="51" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
+    <col min="8" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1" s="39" t="s">
+    <row r="1" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="92" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="108" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="108"/>
-      <c r="D3" s="38" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="74"/>
+      <c r="D3" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="K3" s="32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="L4" s="33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="L4" s="8"/>
-    </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="L5" s="8" t="s">
-        <v>116</v>
+      <c r="D5" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="61" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="49" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2749,14 +3103,15 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="L6" s="8" t="s">
-        <v>119</v>
+      <c r="K6" s="44"/>
+      <c r="L6" s="84" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="61" t="s">
+      <c r="A7" s="94"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="49" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2772,66 +3127,69 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="L7" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="94"/>
       <c r="B8" s="98"/>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="L8" s="8" t="s">
-        <v>117</v>
+      <c r="D8" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
-      <c r="B9" s="102" t="s">
+      <c r="A9" s="94"/>
+      <c r="B9" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="L9" s="8" t="s">
+      <c r="D9" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="100"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="61" t="s">
+      <c r="A10" s="94"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="49" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2849,113 +3207,136 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="L10" s="8" t="s">
+      <c r="K10" s="44"/>
+      <c r="L10" s="84" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="61" t="s">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="94"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="L11" s="8" t="s">
+      <c r="D11" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
-      <c r="B12" s="103"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="L12" s="8"/>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="94"/>
+      <c r="B12" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
-      <c r="B14" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="L14" s="8" t="s">
+      <c r="K13" s="44"/>
+      <c r="L13" s="84" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="L15" s="8" t="s">
+    <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="94"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="94"/>
+      <c r="B15" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="82" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="100"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="61" t="s">
-        <v>127</v>
+      <c r="A16" s="94"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>73</v>
@@ -2963,22 +3344,19 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="L16" s="8" t="s">
-        <v>126</v>
+      <c r="K16" s="44"/>
+      <c r="L16" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="100"/>
-      <c r="B17" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>46</v>
+      <c r="A17" s="94"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="49" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>73</v>
@@ -2989,15 +3367,16 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="L17" s="8" t="s">
-        <v>129</v>
+      <c r="K17" s="44"/>
+      <c r="L17" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="61" t="s">
-        <v>47</v>
+      <c r="A18" s="94"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="49" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>73</v>
@@ -3008,15 +3387,16 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="L18" s="8" t="s">
-        <v>129</v>
+      <c r="K18" s="44"/>
+      <c r="L18" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="100"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="61" t="s">
-        <v>48</v>
+      <c r="A19" s="94"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="49" t="s">
+        <v>50</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>73</v>
@@ -3027,258 +3407,341 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="L19" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="L20" s="8" t="s">
-        <v>129</v>
+      <c r="K19" s="44"/>
+      <c r="L19" s="84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="102"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="100"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="L21" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="100"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="B22" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="L22" s="8" t="s">
-        <v>129</v>
+      <c r="K22" s="44"/>
+      <c r="L22" s="84" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="101"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="L24" s="8" t="s">
+      <c r="K23" s="44"/>
+      <c r="L23" s="84" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="101"/>
+      <c r="B24" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="106"/>
+      <c r="D24" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="89" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
-      <c r="B25" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="L25" s="8" t="s">
-        <v>124</v>
+      <c r="A25" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="81"/>
+      <c r="L25" s="82" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
-      <c r="B26" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="L26" s="8" t="s">
-        <v>126</v>
+      <c r="K26" s="44"/>
+      <c r="L26" s="84" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
-      <c r="B27" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="64"/>
+      <c r="D27" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="L27" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="8"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="83"/>
+      <c r="B28" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="104"/>
-      <c r="B29" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="L29" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="64" t="s">
+      <c r="K28" s="44"/>
+      <c r="L28" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="L30" s="8" t="s">
-        <v>135</v>
+    </row>
+    <row r="29" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="85"/>
+      <c r="B29" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>132</v>
-      </c>
+      <c r="A31" s="83"/>
+      <c r="B31" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="49"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="L31" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="100"/>
-      <c r="B32" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="K31" s="44"/>
+      <c r="L31" s="84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="83"/>
+      <c r="B32" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="49"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="L32" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
-      <c r="B33" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="61"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="83"/>
+      <c r="B33" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="49"/>
       <c r="D33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="L33" s="8" t="s">
-        <v>135</v>
+      <c r="K33" s="44"/>
+      <c r="L33" s="84" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="61"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="49"/>
       <c r="D34" s="8" t="s">
         <v>73</v>
       </c>
@@ -3289,223 +3752,268 @@
         <v>73</v>
       </c>
       <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="K34" s="44"/>
+      <c r="L34" s="84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="107"/>
+      <c r="B35" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="L35" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="L36" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="L37" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100"/>
-      <c r="B38" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="K35" s="44"/>
+      <c r="L35" s="84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="108"/>
+      <c r="B36" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="89"/>
+    </row>
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="83"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="L38" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="100"/>
-      <c r="B39" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="44"/>
+      <c r="L38" s="111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="83"/>
+      <c r="B39" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
-      <c r="L39" s="8" t="s">
-        <v>109</v>
+      <c r="K39" s="44"/>
+      <c r="L39" s="84" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="101"/>
-      <c r="B40" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="A40" s="83"/>
+      <c r="B40" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="L40" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" t="s">
-        <v>73</v>
-      </c>
-      <c r="L41" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40" s="44"/>
+      <c r="L40" s="84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="85"/>
+      <c r="B41" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="106"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="89" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="105" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>113</v>
-      </c>
+      <c r="A42" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="104"/>
+      <c r="D42" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="L42" s="82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="85"/>
+      <c r="B43" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="106"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="L43" s="89" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="104"/>
+      <c r="D44" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="81"/>
+      <c r="L44" s="82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="83"/>
+      <c r="B45" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="64"/>
       <c r="D45" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8" t="s">
         <v>73</v>
@@ -3513,602 +4021,310 @@
       <c r="H45" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="L45" s="81" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="100"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L46" s="81" t="s">
-        <v>144</v>
+      <c r="I45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45" s="44"/>
+      <c r="L45" s="84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="85"/>
+      <c r="B46" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="106"/>
+      <c r="D46" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="88"/>
+      <c r="L46" s="89" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="100"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L47" s="81"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="100"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="L48" s="81"/>
-    </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="100"/>
-      <c r="B49" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="80"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="L49" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="100"/>
-      <c r="B50" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>120</v>
+      <c r="A47" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="104"/>
+      <c r="D47" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="85"/>
+      <c r="B48" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="106"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48" s="87"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="114"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49" s="116"/>
+      <c r="L49" s="117" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="114"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="116"/>
+      <c r="L50" s="117" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="101"/>
-      <c r="B51" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="80"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="L51" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="A51" s="118"/>
+      <c r="B51" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="104"/>
+      <c r="D51" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="81"/>
+      <c r="L51" s="82"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="80"/>
-      <c r="D52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="8"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="49"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="H52" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" t="s">
-        <v>73</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="101"/>
-      <c r="B53" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="80"/>
-      <c r="D53" s="61"/>
+      <c r="I52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="44"/>
+      <c r="L52" s="84"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="120"/>
+      <c r="B53" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
-      <c r="K53" t="s">
-        <v>73</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="L54" s="8"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="84" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="121"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="89" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="C55" s="64"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="100"/>
-      <c r="B56" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="C56" s="64"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="101"/>
-      <c r="B57" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="C57" s="64"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="L58" s="8"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="L59" s="8"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="80"/>
-      <c r="D60" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="L60" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="101"/>
-      <c r="B61" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="80"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J61" s="8"/>
-      <c r="L61" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="C60" s="64"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C61" s="64"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="L62" s="8"/>
-    </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="L64" s="8"/>
-    </row>
-    <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="L66" s="8"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
-      <c r="B67" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="80"/>
-      <c r="D67" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L67" s="8"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
-      <c r="B68" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="80"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L68" s="8"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="L69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="98"/>
-      <c r="C70" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="L70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C71" s="80"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C72" s="80"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C73" s="80"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C74" s="80"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C75" s="80"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C76" s="80"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C77" s="80"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C78" s="80"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C79" s="80"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C63" s="64"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L78"/>
+  <autoFilter ref="L1:L62"/>
   <mergeCells count="16">
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A29"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A5:A23"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
+++ b/trunk/Docs/04-Requerimientos/Mapeo usuarios - roles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="19440" windowHeight="7875" tabRatio="413" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="19440" windowHeight="7875" tabRatio="413" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de cambios" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="157">
   <si>
     <t>Moderador de foro</t>
   </si>
@@ -361,18 +361,6 @@
     <t>Encargado de novedades aulicas</t>
   </si>
   <si>
-    <t>Encargado de evento curso - Registro clases</t>
-  </si>
-  <si>
-    <t>Encargado de evento curso - Agenda excursiones</t>
-  </si>
-  <si>
-    <t>Encargado de evento curso - Agenda  evaluacion</t>
-  </si>
-  <si>
-    <t>Encargado de evento curso - Agenda reuniones</t>
-  </si>
-  <si>
     <t>Gestor reportes complejos (consolidados-historicos-indicadores)</t>
   </si>
   <si>
@@ -521,6 +509,12 @@
   </si>
   <si>
     <t>belunchis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado de Actividad Institucionales </t>
+  </si>
+  <si>
+    <t>Encargado de Actividad de curso</t>
   </si>
 </sst>
 </file>
@@ -615,7 +609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,18 +654,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1453,7 +1435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1616,77 +1598,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1699,14 +1633,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1734,9 +1662,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1750,11 +1675,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1772,6 +1693,64 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2184,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:S36"/>
+  <dimension ref="D1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:N27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,42 +2177,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" ht="109.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="126" t="s">
+      <c r="H1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126" t="s">
+      <c r="J1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="127" t="s">
+      <c r="L1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="127" t="s">
+      <c r="N1" s="108" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="4:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="112" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -2255,11 +2234,11 @@
       </c>
       <c r="L2" s="39"/>
       <c r="M2" s="40"/>
-      <c r="N2" s="129"/>
+      <c r="N2" s="109"/>
     </row>
     <row r="3" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D3" s="130" t="s">
-        <v>147</v>
+      <c r="D3" s="112" t="s">
+        <v>155</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
@@ -2274,10 +2253,10 @@
       </c>
       <c r="L3" s="41"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="84"/>
+      <c r="N3" s="78"/>
     </row>
     <row r="4" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="112" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2295,10 +2274,10 @@
       <c r="K4" s="38"/>
       <c r="L4" s="42"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="84"/>
+      <c r="N4" s="78"/>
     </row>
     <row r="5" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="120" t="s">
         <v>104</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2318,11 +2297,11 @@
       <c r="K5" s="38"/>
       <c r="L5" s="42"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="84"/>
+      <c r="N5" s="78"/>
     </row>
     <row r="6" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D6" s="132" t="s">
-        <v>105</v>
+      <c r="D6" s="112" t="s">
+        <v>156</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>73</v>
@@ -2339,296 +2318,302 @@
       <c r="K6" s="38"/>
       <c r="L6" s="42"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="84"/>
+      <c r="N6" s="78"/>
     </row>
     <row r="7" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D7" s="132" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="38"/>
+      <c r="D7" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>9</v>
+      </c>
       <c r="L7" s="42"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="84"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="8" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="132" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="38"/>
+      <c r="D8" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>9</v>
+      </c>
       <c r="L8" s="42"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="84"/>
+      <c r="N8" s="78"/>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="132" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="84"/>
+      <c r="D9" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="47"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="43"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="110"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D10" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="42"/>
+      <c r="D10" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="84"/>
-    </row>
-    <row r="11" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D11" s="128" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="84"/>
-    </row>
-    <row r="12" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D12" s="128" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="133"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-    </row>
-    <row r="13" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="128" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="8"/>
+      <c r="N10" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+    </row>
+    <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="45"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="86"/>
+    </row>
+    <row r="12" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="112" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="45"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="78"/>
+    </row>
+    <row r="13" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="56"/>
+      <c r="L13" s="45"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="134" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
+      <c r="N13" s="78"/>
     </row>
     <row r="14" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="128" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="95"/>
-    </row>
-    <row r="15" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="48" t="s">
+      <c r="D14" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="61"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="78"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+    </row>
+    <row r="15" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D15" s="112" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="52"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="31"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="45"/>
+      <c r="K15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="43"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="84"/>
-    </row>
-    <row r="16" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="128" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="56"/>
-      <c r="L16" s="45"/>
+      <c r="N15" s="78"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+    </row>
+    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D16" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="84"/>
-    </row>
-    <row r="17" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="61"/>
-      <c r="L17" s="41"/>
+      <c r="N16" s="78"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D17" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="84"/>
+      <c r="N17" s="78"/>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="128" t="s">
-        <v>127</v>
+      <c r="D18" s="112" t="s">
+        <v>107</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="48" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="43"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="84"/>
+      <c r="N18" s="78"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="128" t="s">
-        <v>155</v>
+      <c r="D19" s="112" t="s">
+        <v>2</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="41"/>
+      <c r="G19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="84"/>
+      <c r="N19" s="78"/>
       <c r="P19" s="44"/>
       <c r="Q19" s="44"/>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="128" t="s">
-        <v>138</v>
+      <c r="D20" s="112" t="s">
+        <v>137</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>9</v>
@@ -2636,317 +2621,248 @@
       <c r="F20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="84"/>
+      <c r="N20" s="78"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D21" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D21" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="84"/>
+      <c r="N21" s="78"/>
       <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D22" s="128" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="84"/>
+      <c r="D22" s="112" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="113"/>
       <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="135" t="s">
+      <c r="D23" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="84"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
+      <c r="N23" s="114" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="84"/>
-      <c r="P24" s="44"/>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="128" t="s">
-        <v>148</v>
+      <c r="D24" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="86"/>
+    </row>
+    <row r="25" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="115" t="s">
+        <v>25</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="136"/>
-      <c r="P25" s="44"/>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="135" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="78"/>
+    </row>
+    <row r="26" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="L26" s="68"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="128" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="95"/>
+      <c r="N26" s="78"/>
+    </row>
+    <row r="27" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="78"/>
     </row>
     <row r="28" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D28" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="35"/>
       <c r="K28" s="8"/>
       <c r="L28" s="68"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="84"/>
+      <c r="N28" s="78"/>
     </row>
     <row r="29" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="138" t="s">
-        <v>26</v>
+      <c r="D29" s="115" t="s">
+        <v>29</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="I29" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="J29" s="35"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="68"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="84"/>
+      <c r="N29" s="78"/>
     </row>
     <row r="30" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="138" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="35"/>
+      <c r="D30" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="67" t="s">
+        <v>9</v>
+      </c>
       <c r="K30" s="8"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="84"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="110"/>
     </row>
     <row r="31" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="138" t="s">
-        <v>28</v>
+      <c r="D31" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="68"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="84"/>
+      <c r="N31" s="78"/>
     </row>
     <row r="32" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="138" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="35"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="84"/>
-    </row>
-    <row r="33" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="139" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="133"/>
-    </row>
-    <row r="34" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="140" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="84"/>
-    </row>
-    <row r="35" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="142" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" s="87"/>
-      <c r="N35" s="89"/>
-    </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D36" s="123" t="s">
-        <v>154</v>
+      <c r="D32" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="80"/>
+      <c r="N32" s="82"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="104" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2959,9 +2875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4:L54"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,39 +2890,39 @@
     <col min="6" max="6" width="4.85546875" customWidth="1"/>
     <col min="7" max="7" width="4.140625" customWidth="1"/>
     <col min="8" max="9" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" customWidth="1"/>
     <col min="12" max="12" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="85" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="127" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="32"/>
@@ -3022,7 +2938,7 @@
       <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="74"/>
+      <c r="C3" s="127"/>
       <c r="D3" s="32" t="s">
         <v>85</v>
       </c>
@@ -3045,50 +2961,50 @@
         <v>79</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
       <c r="L4" s="33" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="82" t="s">
-        <v>115</v>
+      <c r="D5" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="97"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="49" t="s">
         <v>88</v>
       </c>
@@ -3104,13 +3020,13 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="44"/>
-      <c r="L6" s="84" t="s">
-        <v>118</v>
+      <c r="L6" s="78" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="97"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="49" t="s">
         <v>87</v>
       </c>
@@ -3128,67 +3044,67 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="44"/>
-      <c r="L7" s="84" t="s">
-        <v>117</v>
+      <c r="L7" s="78" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="86" t="s">
+      <c r="A8" s="133"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89" t="s">
-        <v>116</v>
+      <c r="D8" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="99" t="s">
+      <c r="A9" s="133"/>
+      <c r="B9" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82" t="s">
+      <c r="D9" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="100"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="49" t="s">
         <v>39</v>
       </c>
@@ -3208,65 +3124,65 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="84" t="s">
+      <c r="L10" s="78" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="86" t="s">
+      <c r="A11" s="133"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89" t="s">
+      <c r="D11" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="99" t="s">
+      <c r="A12" s="133"/>
+      <c r="B12" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82" t="s">
-        <v>123</v>
+      <c r="D12" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="77" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="49" t="s">
         <v>41</v>
       </c>
@@ -3284,57 +3200,57 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="44"/>
-      <c r="L13" s="84" t="s">
+      <c r="L13" s="78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="133"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="133"/>
+      <c r="B15" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="94"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="49" t="s">
         <v>47</v>
       </c>
@@ -3348,13 +3264,13 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="44"/>
-      <c r="L16" s="84" t="s">
-        <v>128</v>
+      <c r="L16" s="78" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="133"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="49" t="s">
         <v>48</v>
       </c>
@@ -3368,13 +3284,13 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="44"/>
-      <c r="L17" s="84" t="s">
-        <v>128</v>
+      <c r="L17" s="78" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="100"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="49" t="s">
         <v>49</v>
       </c>
@@ -3388,13 +3304,13 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="44"/>
-      <c r="L18" s="84" t="s">
-        <v>128</v>
+      <c r="L18" s="78" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="49" t="s">
         <v>50</v>
       </c>
@@ -3408,58 +3324,58 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="44"/>
-      <c r="L19" s="84" t="s">
-        <v>128</v>
+      <c r="L19" s="78" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="102"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="86" t="s">
+      <c r="A20" s="134"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="89" t="s">
-        <v>128</v>
+      <c r="D20" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="82" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="82" t="s">
-        <v>124</v>
+      <c r="C21" s="88"/>
+      <c r="D21" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="77" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="73" t="s">
         <v>42</v>
       </c>
@@ -3474,12 +3390,12 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="44"/>
-      <c r="L22" s="84" t="s">
-        <v>123</v>
+      <c r="L22" s="78" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="73" t="s">
         <v>43</v>
       </c>
@@ -3494,62 +3410,62 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="44"/>
-      <c r="L23" s="84" t="s">
+      <c r="L23" s="78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="123"/>
+      <c r="B24" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="90"/>
+      <c r="D24" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="82" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="101"/>
-      <c r="B24" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="89" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="88"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="76"/>
+      <c r="L25" s="77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="125"/>
+      <c r="B26" s="73" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="K25" s="81"/>
-      <c r="L25" s="82" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
-      <c r="B26" s="73" t="s">
-        <v>133</v>
       </c>
       <c r="C26" s="64"/>
       <c r="D26" s="8" t="s">
@@ -3566,14 +3482,14 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="44"/>
-      <c r="L26" s="84" t="s">
-        <v>134</v>
+      <c r="L26" s="78" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="73" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C27" s="64"/>
       <c r="D27" s="8" t="s">
@@ -3590,14 +3506,14 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="44"/>
-      <c r="L27" s="84" t="s">
-        <v>134</v>
+      <c r="L27" s="78" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
+      <c r="A28" s="125"/>
       <c r="B28" s="73" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="8" t="s">
@@ -3614,60 +3530,60 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="44"/>
-      <c r="L28" s="84" t="s">
-        <v>134</v>
+      <c r="L28" s="78" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="85"/>
-      <c r="B29" s="105" t="s">
+      <c r="A29" s="126"/>
+      <c r="B29" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="89" t="s">
-        <v>134</v>
+      <c r="C29" s="79"/>
+      <c r="D29" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="82" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="82" t="s">
-        <v>110</v>
+      <c r="C30" s="74"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="73" t="s">
         <v>61</v>
       </c>
@@ -3684,12 +3600,12 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="44"/>
-      <c r="L31" s="84" t="s">
-        <v>110</v>
+      <c r="L31" s="78" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="73" t="s">
         <v>62</v>
       </c>
@@ -3706,12 +3622,12 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="44"/>
-      <c r="L32" s="84" t="s">
-        <v>110</v>
+      <c r="L32" s="78" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="73" t="s">
         <v>97</v>
       </c>
@@ -3732,12 +3648,12 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="44"/>
-      <c r="L33" s="84" t="s">
-        <v>109</v>
+      <c r="L33" s="78" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="73" t="s">
         <v>63</v>
       </c>
@@ -3758,12 +3674,12 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="44"/>
-      <c r="L34" s="84" t="s">
-        <v>109</v>
+      <c r="L34" s="78" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="73" t="s">
         <v>64</v>
       </c>
@@ -3784,63 +3700,63 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="44"/>
-      <c r="L35" s="84" t="s">
+      <c r="L35" s="78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="91"/>
+      <c r="B36" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="82"/>
+    </row>
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="138" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="74" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
-      <c r="B36" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="L36" s="89"/>
-    </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="110" t="s">
-        <v>141</v>
+      <c r="D37" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="92" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="76"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="49" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -3854,12 +3770,12 @@
         <v>73</v>
       </c>
       <c r="K38" s="44"/>
-      <c r="L38" s="111" t="s">
-        <v>143</v>
+      <c r="L38" s="93" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="73" t="s">
         <v>92</v>
       </c>
@@ -3874,12 +3790,12 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="44"/>
-      <c r="L39" s="84" t="s">
-        <v>147</v>
+      <c r="L39" s="78" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="125"/>
       <c r="B40" s="73" t="s">
         <v>93</v>
       </c>
@@ -3896,116 +3812,116 @@
         <v>73</v>
       </c>
       <c r="K40" s="44"/>
-      <c r="L40" s="84" t="s">
-        <v>119</v>
+      <c r="L40" s="78" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="85"/>
-      <c r="B41" s="105" t="s">
+      <c r="A41" s="126"/>
+      <c r="B41" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="89" t="s">
-        <v>120</v>
+      <c r="C41" s="90"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="82" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="L42" s="82" t="s">
+      <c r="C42" s="88"/>
+      <c r="D42" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="L42" s="77" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="85"/>
-      <c r="B43" s="105" t="s">
+      <c r="A43" s="126"/>
+      <c r="B43" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="L43" s="89" t="s">
+      <c r="C43" s="90"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="L43" s="82" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="103" t="s">
+      <c r="B44" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="104"/>
-      <c r="D44" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="I44" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="J44" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="K44" s="81"/>
-      <c r="L44" s="82" t="s">
-        <v>130</v>
+      <c r="C44" s="88"/>
+      <c r="D44" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="76"/>
+      <c r="L44" s="77" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
+      <c r="A45" s="125"/>
       <c r="B45" s="73" t="s">
         <v>69</v>
       </c>
@@ -4028,170 +3944,170 @@
         <v>73</v>
       </c>
       <c r="K45" s="44"/>
-      <c r="L45" s="84" t="s">
-        <v>130</v>
+      <c r="L45" s="78" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="85"/>
-      <c r="B46" s="105" t="s">
+      <c r="A46" s="126"/>
+      <c r="B46" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="F46" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="I46" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="K46" s="88"/>
-      <c r="L46" s="89" t="s">
-        <v>130</v>
+      <c r="C46" s="90"/>
+      <c r="D46" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="81"/>
+      <c r="L46" s="82" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="78" t="s">
+      <c r="A47" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="82" t="s">
+      <c r="C47" s="88"/>
+      <c r="D47" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="77" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="85"/>
-      <c r="B48" s="105" t="s">
+      <c r="A48" s="126"/>
+      <c r="B48" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="J48" s="87"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="89" t="s">
+      <c r="C48" s="90"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48" s="80"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="82" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="112" t="s">
+      <c r="A49" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="115" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="J49" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="K49" s="116"/>
-      <c r="L49" s="117" t="s">
-        <v>137</v>
+      <c r="C49" s="96"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="97"/>
+      <c r="I49" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49" s="98"/>
+      <c r="L49" s="99" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="113" t="s">
+      <c r="B50" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="J50" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="K50" s="116"/>
-      <c r="L50" s="117" t="s">
-        <v>139</v>
+      <c r="C50" s="96"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="98"/>
+      <c r="L50" s="99" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="118"/>
-      <c r="B51" s="103" t="s">
+      <c r="A51" s="100"/>
+      <c r="B51" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="J51" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="K51" s="81"/>
-      <c r="L51" s="82"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="76"/>
+      <c r="L51" s="77"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="119"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="73" t="s">
         <v>77</v>
       </c>
@@ -4212,15 +4128,15 @@
         <v>73</v>
       </c>
       <c r="K52" s="44"/>
-      <c r="L52" s="84"/>
+      <c r="L52" s="78"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="120"/>
-      <c r="B53" s="75" t="s">
-        <v>149</v>
+      <c r="A53" s="102"/>
+      <c r="B53" s="135" t="s">
+        <v>145</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -4230,26 +4146,26 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="44"/>
-      <c r="L53" s="84" t="s">
-        <v>152</v>
+      <c r="L53" s="78" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="121"/>
-      <c r="B54" s="122"/>
-      <c r="C54" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="89" t="s">
-        <v>152</v>
+      <c r="A54" s="103"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="82" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
